--- a/scenarios.xlsx
+++ b/scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\MEDMOD\SpatialModelsR\MEDFIRE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1ECCDF-364E-45A7-AE4B-9EAF367591F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434C3D57-C147-47D2-85E1-1E6ADD3506E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29040" yWindow="1545" windowWidth="17280" windowHeight="8970" firstSheet="1" activeTab="1" xr2:uid="{9687B63A-F89B-47E3-AB36-04820FAA1C94}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{9687B63A-F89B-47E3-AB36-04820FAA1C94}"/>
   </bookViews>
   <sheets>
     <sheet name="Obj4" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="65">
   <si>
     <t>scn.id</t>
   </si>
@@ -227,9 +227,6 @@
   </si>
   <si>
     <t>test done</t>
-  </si>
-  <si>
-    <t>running</t>
   </si>
   <si>
     <t>running without FS</t>
@@ -321,7 +318,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,9 +393,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -406,6 +400,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2109,7 +2106,7 @@
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2201,7 +2198,7 @@
         <v>61</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -2215,8 +2212,8 @@
       <c r="C3" s="18">
         <v>1</v>
       </c>
-      <c r="D3" s="27" t="s">
-        <v>22</v>
+      <c r="D3" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>22</v>
@@ -2240,7 +2237,7 @@
         <v>61</v>
       </c>
       <c r="L3" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.3">
@@ -2308,49 +2305,49 @@
       <c r="I5" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="23" t="s">
-        <v>38</v>
+      <c r="J5" s="30" t="s">
+        <v>39</v>
       </c>
       <c r="K5" t="s">
         <v>61</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="28">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27">
         <f t="shared" ref="A6:A25" si="0">+A5+1</f>
         <v>5</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="28">
-        <v>1</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="29" t="s">
+      <c r="C6" s="27">
+        <v>1</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="30" t="s">
+      <c r="K6" s="29" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2426,39 +2423,39 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="28">
+    <row r="9" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="27">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="28">
-        <v>1</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="29" t="s">
+      <c r="C9" s="27">
+        <v>1</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="K9" s="30" t="s">
+      <c r="K9" s="29" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2753,39 +2750,39 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="28">
+    <row r="18" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="27">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="28">
-        <v>1</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" s="29" t="s">
+      <c r="C18" s="27">
+        <v>1</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="K18" s="30" t="s">
+      <c r="K18" s="29" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2861,39 +2858,39 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="28">
+    <row r="21" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="27">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="28">
-        <v>1</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="J21" s="29" t="s">
+      <c r="C21" s="27">
+        <v>1</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="K21" s="30" t="s">
+      <c r="K21" s="29" t="s">
         <v>61</v>
       </c>
     </row>

--- a/scenarios.xlsx
+++ b/scenarios.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\MEDMOD\SpatialModelsR\MEDFIRE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ctfccat-my.sharepoint.com/personal/nuria_aquilue_ctfc_cat/Documents/MEDMOD/SpatialModelsR/MEDFIRE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434C3D57-C147-47D2-85E1-1E6ADD3506E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{434C3D57-C147-47D2-85E1-1E6ADD3506E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8A58901F-DD8A-4D34-A833-72C5837BA5E3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{9687B63A-F89B-47E3-AB36-04820FAA1C94}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9024" firstSheet="1" activeTab="1" xr2:uid="{9687B63A-F89B-47E3-AB36-04820FAA1C94}"/>
   </bookViews>
   <sheets>
     <sheet name="Obj4" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="64">
   <si>
     <t>scn.id</t>
   </si>
@@ -134,9 +134,6 @@
   </si>
   <si>
     <t>is.wildfire</t>
-  </si>
-  <si>
-    <t>is.postfire</t>
   </si>
   <si>
     <t>fire.suppression</t>
@@ -273,7 +270,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,12 +310,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,9 +391,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2103,10 +2092,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC90E6F-89AC-4A3D-828F-2B7D50492705}">
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2119,13 +2108,12 @@
     <col min="6" max="6" width="18.44140625" style="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="18" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="18" customWidth="1"/>
-    <col min="9" max="9" width="9.21875" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.21875" style="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.5546875" style="18"/>
+    <col min="9" max="9" width="26.21875" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.5546875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -2133,10 +2121,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>58</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>59</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>25</v>
@@ -2154,24 +2142,21 @@
         <v>33</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="L1" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="18">
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" s="18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>29</v>
@@ -2189,19 +2174,16 @@
         <v>22</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18">
         <f>+A2+1</f>
         <v>2</v>
@@ -2210,7 +2192,8 @@
         <v>27</v>
       </c>
       <c r="C3" s="18">
-        <v>1</v>
+        <f>+C2</f>
+        <v>5</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>29</v>
@@ -2228,30 +2211,28 @@
         <v>22</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" t="s">
-        <v>61</v>
-      </c>
-      <c r="L3" s="18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="J3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20">
         <f>+A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="18">
-        <v>1</v>
-      </c>
-      <c r="D4" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="20">
+        <f t="shared" ref="C4:C25" si="0">+C3</f>
+        <v>5</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="20" t="s">
@@ -2267,25 +2248,23 @@
         <v>22</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
         <f>+A4+1</f>
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="18">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>29</v>
@@ -2302,283 +2281,267 @@
       <c r="H5" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="I5" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27">
+        <f t="shared" ref="A6:A25" si="1">+A5+1</f>
+        <v>5</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="20">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="18">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="27">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="L5" s="18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27">
-        <f t="shared" ref="A6:A25" si="0">+A5+1</f>
+      <c r="C9" s="18">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="27">
-        <v>1</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" s="29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20">
+      <c r="D9" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="20">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="20">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="18">
-        <v>1</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="18">
+        <v>5</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="20">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="20">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="18">
-        <v>1</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="20">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="20">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="K8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="27">
+      <c r="J12" s="30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="20">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="20">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="27">
-        <v>1</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" s="29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="18">
-        <v>1</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="K10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="20">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="18">
-        <v>1</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="J11" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="20">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="18">
-        <v>1</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="18">
-        <v>1</v>
-      </c>
-      <c r="D13" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="20" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="20" t="s">
@@ -2594,25 +2557,23 @@
         <v>29</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="K13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="J13" s="30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="18">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>29</v>
@@ -2630,28 +2591,26 @@
         <v>22</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="K14" t="s">
-        <v>61</v>
-      </c>
-      <c r="L14" s="18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="J14" t="s">
+        <v>60</v>
+      </c>
+      <c r="K14" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="18">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>29</v>
@@ -2669,351 +2628,331 @@
         <v>22</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="K15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="J15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="20">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B16" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="18">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="27">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="18">
-        <v>1</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="J16" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="K16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="18">
+      <c r="J18" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="20">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="20">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="18">
-        <v>1</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J17" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="K17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27">
+      <c r="J19" s="30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="18">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="18">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="27">
-        <v>1</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="K18" s="29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20">
+      <c r="J20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="27">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="18">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="18">
-        <v>1</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="J19" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="18">
+        <v>5</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="J21" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="20">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="20">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="18">
-        <v>1</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="I20" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J20" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="K20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="27">
+        <v>5</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="J22" s="30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="20">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="20">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="27">
-        <v>1</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="J21" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="J23" s="30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="20">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="20">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="K21" s="29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="20">
+      <c r="J24" s="30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="20">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="20">
         <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="18">
-        <v>1</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="I22" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="J22" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="K22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="20">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="18">
-        <v>1</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="I23" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="J23" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="K23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="20">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="18">
-        <v>1</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="H24" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="I24" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="J24" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="K24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="20">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="18">
-        <v>1</v>
-      </c>
-      <c r="D25" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="20" t="s">
         <v>29</v>
       </c>
       <c r="E25" s="25" t="s">
@@ -3029,30 +2968,27 @@
         <v>29</v>
       </c>
       <c r="I25" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="J25" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="K25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="J25" s="30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F26" s="19"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E27" s="24"/>
       <c r="F27" s="19"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F28" s="19"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E29" s="24"/>
       <c r="F29" s="19"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E31" s="24"/>
     </row>
     <row r="33" spans="5:6" x14ac:dyDescent="0.3">

--- a/scenarios.xlsx
+++ b/scenarios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ctfccat-my.sharepoint.com/personal/nuria_aquilue_ctfc_cat/Documents/MEDMOD/SpatialModelsR/MEDFIRE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\MEDMOD\SpatialModelsR\MEDFIRE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{434C3D57-C147-47D2-85E1-1E6ADD3506E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8A58901F-DD8A-4D34-A833-72C5837BA5E3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7ABD733-EE0A-4D24-81B6-F5F6964F4C9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9024" firstSheet="1" activeTab="1" xr2:uid="{9687B63A-F89B-47E3-AB36-04820FAA1C94}"/>
+    <workbookView xWindow="29445" yWindow="1860" windowWidth="17280" windowHeight="8970" firstSheet="1" activeTab="1" xr2:uid="{9687B63A-F89B-47E3-AB36-04820FAA1C94}"/>
   </bookViews>
   <sheets>
     <sheet name="Obj4" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="62">
   <si>
     <t>scn.id</t>
   </si>
@@ -145,15 +145,6 @@
     <t>Scn_CC_FM</t>
   </si>
   <si>
-    <t>FireSuppression_Current</t>
-  </si>
-  <si>
-    <t>FireSuppression_Let-it-burnt</t>
-  </si>
-  <si>
-    <t>FireSuppression</t>
-  </si>
-  <si>
     <t>Scn_WF</t>
   </si>
   <si>
@@ -223,17 +214,20 @@
     <t>Scn_LC_WF_FS</t>
   </si>
   <si>
-    <t>test done</t>
-  </si>
-  <si>
-    <t>running without FS</t>
+    <t>FireSuppress</t>
+  </si>
+  <si>
+    <t>FireSuppress_LetItBurnt</t>
+  </si>
+  <si>
+    <t>FireSuppress_Current</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,15 +256,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="8" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -307,12 +294,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -326,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -372,26 +353,14 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2095,7 +2064,7 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I17" sqref="I17:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2121,10 +2090,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>25</v>
@@ -2142,7 +2111,7 @@
         <v>33</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K1" s="17" t="s">
         <v>10</v>
@@ -2153,7 +2122,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C2" s="18">
         <v>5</v>
@@ -2174,13 +2143,10 @@
         <v>22</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="J2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -2211,13 +2177,10 @@
         <v>22</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
@@ -2241,17 +2204,17 @@
       <c r="F4" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="24" t="s">
         <v>29</v>
       </c>
       <c r="H4" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="30" t="s">
-        <v>60</v>
+      <c r="I4" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -2260,7 +2223,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C5" s="18">
         <f t="shared" si="0"/>
@@ -2281,48 +2244,45 @@
       <c r="H5" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="18" t="s">
-        <v>38</v>
+      <c r="I5" s="22" t="s">
+        <v>60</v>
       </c>
       <c r="J5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K5" s="18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="19">
         <f t="shared" ref="A6:A25" si="1">+A5+1</f>
         <v>5</v>
       </c>
-      <c r="B6" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="18">
+      <c r="B6" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D6" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>60</v>
+      <c r="D6" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
@@ -2331,7 +2291,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C7" s="20">
         <f t="shared" si="0"/>
@@ -2343,20 +2303,20 @@
       <c r="E7" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="25" t="s">
+      <c r="F7" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="24" t="s">
         <v>29</v>
       </c>
       <c r="H7" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="30" t="s">
-        <v>60</v>
+      <c r="I7" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -2365,7 +2325,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C8" s="18">
         <f t="shared" si="0"/>
@@ -2386,45 +2346,45 @@
       <c r="H8" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="18" t="s">
-        <v>38</v>
+      <c r="I8" s="22" t="s">
+        <v>60</v>
       </c>
       <c r="J8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="27">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="19">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B9" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="18">
+      <c r="B9" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D9" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" s="29" t="s">
-        <v>60</v>
+      <c r="D9" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
@@ -2433,7 +2393,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C10" s="20">
         <f t="shared" si="0"/>
@@ -2448,17 +2408,17 @@
       <c r="F10" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="30" t="s">
+      <c r="G10" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="22" t="s">
         <v>60</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
@@ -2467,7 +2427,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C11" s="20">
         <f t="shared" si="0"/>
@@ -2482,17 +2442,17 @@
       <c r="F11" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11" s="30" t="s">
-        <v>60</v>
+      <c r="G11" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
@@ -2501,7 +2461,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C12" s="20">
         <f t="shared" si="0"/>
@@ -2513,20 +2473,20 @@
       <c r="E12" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="30" t="s">
+      <c r="F12" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="22" t="s">
         <v>60</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
@@ -2535,7 +2495,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C13" s="20">
         <f t="shared" si="0"/>
@@ -2547,20 +2507,20 @@
       <c r="E13" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="J13" s="30" t="s">
-        <v>60</v>
+      <c r="F13" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" s="25" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -2591,13 +2551,10 @@
         <v>22</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="J14" t="s">
-        <v>60</v>
-      </c>
-      <c r="K14" s="18" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -2628,10 +2585,10 @@
         <v>22</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="J15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
@@ -2649,23 +2606,23 @@
       <c r="D16" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="24" t="s">
         <v>29</v>
       </c>
       <c r="F16" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="24" t="s">
         <v>29</v>
       </c>
       <c r="H16" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16" s="30" t="s">
-        <v>60</v>
+      <c r="I16" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="J16" s="25" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -2674,7 +2631,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C17" s="18">
         <f t="shared" si="0"/>
@@ -2695,45 +2652,45 @@
       <c r="H17" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="23" t="s">
-        <v>37</v>
+      <c r="I17" s="22" t="s">
+        <v>60</v>
       </c>
       <c r="J17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="19">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B18" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="18">
+      <c r="B18" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D18" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="J18" s="29" t="s">
-        <v>60</v>
+      <c r="D18" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="J18" s="26" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
@@ -2742,7 +2699,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C19" s="20">
         <f t="shared" si="0"/>
@@ -2751,23 +2708,23 @@
       <c r="D19" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="25" t="s">
+      <c r="E19" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="24" t="s">
         <v>29</v>
       </c>
       <c r="H19" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="J19" s="30" t="s">
-        <v>60</v>
+      <c r="I19" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="J19" s="25" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -2776,7 +2733,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C20" s="18">
         <f t="shared" si="0"/>
@@ -2797,45 +2754,45 @@
       <c r="H20" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="I20" s="23" t="s">
-        <v>37</v>
+      <c r="I20" s="22" t="s">
+        <v>60</v>
       </c>
       <c r="J20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="27">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="19">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B21" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="18">
+      <c r="B21" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D21" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="J21" s="29" t="s">
-        <v>60</v>
+      <c r="D21" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="J21" s="26" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
@@ -2844,7 +2801,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C22" s="20">
         <f t="shared" si="0"/>
@@ -2853,23 +2810,23 @@
       <c r="D22" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="24" t="s">
         <v>29</v>
       </c>
       <c r="F22" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="I22" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="J22" s="30" t="s">
+      <c r="G22" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" s="22" t="s">
         <v>60</v>
+      </c>
+      <c r="J22" s="25" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
@@ -2878,7 +2835,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C23" s="20">
         <f t="shared" si="0"/>
@@ -2887,23 +2844,23 @@
       <c r="D23" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="24" t="s">
         <v>29</v>
       </c>
       <c r="F23" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="I23" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="J23" s="30" t="s">
-        <v>60</v>
+      <c r="G23" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="J23" s="25" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
@@ -2912,7 +2869,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C24" s="20">
         <f t="shared" si="0"/>
@@ -2921,23 +2878,23 @@
       <c r="D24" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="H24" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="I24" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="J24" s="30" t="s">
+      <c r="E24" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" s="22" t="s">
         <v>60</v>
+      </c>
+      <c r="J24" s="25" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
@@ -2946,7 +2903,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C25" s="20">
         <f t="shared" si="0"/>
@@ -2955,50 +2912,50 @@
       <c r="D25" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="H25" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="I25" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="J25" s="30" t="s">
-        <v>60</v>
+      <c r="E25" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="J25" s="25" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F26" s="19"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E27" s="24"/>
+      <c r="E27" s="23"/>
       <c r="F27" s="19"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F28" s="19"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E29" s="24"/>
+      <c r="E29" s="23"/>
       <c r="F29" s="19"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E31" s="24"/>
+      <c r="E31" s="23"/>
     </row>
     <row r="33" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E33" s="24"/>
+      <c r="E33" s="23"/>
     </row>
     <row r="35" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E35" s="24"/>
+      <c r="E35" s="23"/>
     </row>
     <row r="37" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E37" s="24"/>
+      <c r="E37" s="23"/>
       <c r="F37" s="20"/>
     </row>
     <row r="38" spans="5:6" x14ac:dyDescent="0.3">

--- a/scenarios.xlsx
+++ b/scenarios.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\MEDMOD\SpatialModelsR\MEDFIRE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ctfccat-my.sharepoint.com/personal/nuria_aquilue_ctfc_cat/Documents/MEDMOD/SpatialModelsR/MEDFIRE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7ABD733-EE0A-4D24-81B6-F5F6964F4C9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{E7ABD733-EE0A-4D24-81B6-F5F6964F4C9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8110F5DC-32A8-457E-A827-3C277809E6FA}"/>
   <bookViews>
-    <workbookView xWindow="29445" yWindow="1860" windowWidth="17280" windowHeight="8970" firstSheet="1" activeTab="1" xr2:uid="{9687B63A-F89B-47E3-AB36-04820FAA1C94}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="16200" windowHeight="9360" firstSheet="1" activeTab="1" xr2:uid="{9687B63A-F89B-47E3-AB36-04820FAA1C94}"/>
   </bookViews>
   <sheets>
     <sheet name="Obj4" sheetId="1" r:id="rId1"/>
@@ -681,23 +681,23 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.5546875" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.5703125" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
-    <col min="10" max="10" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="11.5546875" style="7"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.5703125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -735,7 +735,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -774,7 +774,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <f>+A2+1</f>
         <v>2</v>
@@ -814,7 +814,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <f>+A3+1</f>
         <v>3</v>
@@ -854,7 +854,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <f>+A4+1</f>
         <v>4</v>
@@ -894,7 +894,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <f>+A5+1</f>
         <v>5</v>
@@ -934,7 +934,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <f>+A6+1</f>
         <v>6</v>
@@ -974,7 +974,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f t="shared" ref="A8:A34" si="2">+A7+1</f>
         <v>7</v>
@@ -1014,7 +1014,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -1054,7 +1054,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -1094,7 +1094,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -1134,7 +1134,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -1174,7 +1174,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -1214,7 +1214,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -1254,7 +1254,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -1294,7 +1294,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -1334,7 +1334,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -1374,7 +1374,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -1414,7 +1414,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -1454,7 +1454,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -1494,7 +1494,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -1574,7 +1574,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -1614,7 +1614,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -1654,7 +1654,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -1694,7 +1694,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -1734,7 +1734,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <f t="shared" si="2"/>
         <v>26</v>
@@ -1774,7 +1774,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -1814,7 +1814,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <f t="shared" si="2"/>
         <v>28</v>
@@ -1854,7 +1854,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <f t="shared" si="2"/>
         <v>29</v>
@@ -1894,7 +1894,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -1934,7 +1934,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <f t="shared" si="2"/>
         <v>31</v>
@@ -1974,7 +1974,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <f t="shared" si="2"/>
         <v>32</v>
@@ -2014,7 +2014,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
         <f t="shared" si="2"/>
         <v>33</v>
@@ -2063,26 +2063,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC90E6F-89AC-4A3D-828F-2B7D50492705}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17:I25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="18" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="18" customWidth="1"/>
-    <col min="9" max="9" width="26.21875" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.5546875" style="18"/>
+    <col min="9" max="9" width="26.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.5703125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <f>+A2+1</f>
         <v>2</v>
@@ -2183,7 +2183,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
         <f>+A3+1</f>
         <v>3</v>
@@ -2217,7 +2217,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <f>+A4+1</f>
         <v>4</v>
@@ -2251,7 +2251,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
         <f t="shared" ref="A6:A25" si="1">+A5+1</f>
         <v>5</v>
@@ -2285,7 +2285,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -2319,7 +2319,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -2353,7 +2353,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -2387,7 +2387,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -2421,7 +2421,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -2455,7 +2455,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -2489,7 +2489,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -2523,7 +2523,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -2557,7 +2557,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -2591,7 +2591,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -2625,7 +2625,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -2659,7 +2659,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -2693,7 +2693,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -2727,7 +2727,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -2761,7 +2761,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -2770,8 +2770,7 @@
         <v>53</v>
       </c>
       <c r="C21" s="19">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D21" s="19" t="s">
         <v>29</v>
@@ -2795,7 +2794,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -2805,7 +2804,7 @@
       </c>
       <c r="C22" s="20">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>29</v>
@@ -2829,7 +2828,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -2839,7 +2838,7 @@
       </c>
       <c r="C23" s="20">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D23" s="20" t="s">
         <v>29</v>
@@ -2863,7 +2862,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -2873,7 +2872,7 @@
       </c>
       <c r="C24" s="20">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>29</v>
@@ -2897,7 +2896,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -2907,7 +2906,7 @@
       </c>
       <c r="C25" s="20">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D25" s="20" t="s">
         <v>29</v>
@@ -2931,58 +2930,58 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F26" s="19"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E27" s="23"/>
       <c r="F27" s="19"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F28" s="19"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E29" s="23"/>
       <c r="F29" s="19"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E31" s="23"/>
     </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E33" s="23"/>
     </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E35" s="23"/>
     </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E37" s="23"/>
       <c r="F37" s="20"/>
     </row>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F38" s="20"/>
     </row>
-    <row r="39" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F39" s="20"/>
     </row>
-    <row r="40" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F40" s="20"/>
     </row>
-    <row r="41" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F41" s="20"/>
     </row>
-    <row r="42" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F42" s="20"/>
     </row>
-    <row r="43" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F43" s="20"/>
     </row>
-    <row r="44" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F44" s="20"/>
     </row>
-    <row r="45" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F45" s="20"/>
     </row>
-    <row r="46" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F46" s="20"/>
     </row>
   </sheetData>

--- a/scenarios.xlsx
+++ b/scenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ctfccat-my.sharepoint.com/personal/nuria_aquilue_ctfc_cat/Documents/MEDMOD/SpatialModelsR/MEDFIRE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{E7ABD733-EE0A-4D24-81B6-F5F6964F4C9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8110F5DC-32A8-457E-A827-3C277809E6FA}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{E7ABD733-EE0A-4D24-81B6-F5F6964F4C9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B5D195C2-084A-4FEE-A53F-C37B6AFBB5E0}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="16200" windowHeight="9360" firstSheet="1" activeTab="1" xr2:uid="{9687B63A-F89B-47E3-AB36-04820FAA1C94}"/>
   </bookViews>
@@ -2063,8 +2063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC90E6F-89AC-4A3D-828F-2B7D50492705}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2125,7 +2125,7 @@
         <v>42</v>
       </c>
       <c r="C2" s="18">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>29</v>
@@ -2159,7 +2159,7 @@
       </c>
       <c r="C3" s="18">
         <f>+C2</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>29</v>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="C4" s="20">
         <f t="shared" ref="C4:C25" si="0">+C3</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>29</v>
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C5" s="18">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>29</v>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="C6" s="19">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>29</v>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="C7" s="20">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>29</v>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="C8" s="18">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>29</v>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="C9" s="19">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>29</v>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="C10" s="20">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>29</v>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="C11" s="20">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>29</v>
@@ -2465,7 +2465,7 @@
       </c>
       <c r="C12" s="20">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>29</v>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="C13" s="20">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>29</v>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="C14" s="18">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>29</v>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="C15" s="18">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>29</v>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="C16" s="20">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D16" s="20" t="s">
         <v>29</v>
@@ -2635,7 +2635,7 @@
       </c>
       <c r="C17" s="18">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>29</v>
@@ -2669,7 +2669,7 @@
       </c>
       <c r="C18" s="19">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>29</v>
@@ -2703,7 +2703,7 @@
       </c>
       <c r="C19" s="20">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D19" s="20" t="s">
         <v>29</v>
@@ -2737,7 +2737,7 @@
       </c>
       <c r="C20" s="18">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>29</v>

--- a/scenarios.xlsx
+++ b/scenarios.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ctfccat-my.sharepoint.com/personal/nuria_aquilue_ctfc_cat/Documents/MEDMOD/SpatialModelsR/MEDFIRE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\MEDMOD\SpatialModelsR\MEDFIRE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{E7ABD733-EE0A-4D24-81B6-F5F6964F4C9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B5D195C2-084A-4FEE-A53F-C37B6AFBB5E0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76618519-FD56-4155-BAC9-953006056A8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="16200" windowHeight="9360" firstSheet="1" activeTab="1" xr2:uid="{9687B63A-F89B-47E3-AB36-04820FAA1C94}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="1" activeTab="1" xr2:uid="{9687B63A-F89B-47E3-AB36-04820FAA1C94}"/>
   </bookViews>
   <sheets>
     <sheet name="Obj4" sheetId="1" r:id="rId1"/>
     <sheet name="Obj1" sheetId="3" r:id="rId2"/>
+    <sheet name="times" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="71">
   <si>
     <t>scn.id</t>
   </si>
@@ -221,13 +222,40 @@
   </si>
   <si>
     <t>FireSuppress_Current</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>cohort.age</t>
+  </si>
+  <si>
+    <t>decade</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>decade=(1+floor((t-1)/10))*10</t>
+  </si>
+  <si>
+    <t>floor((t-1)/10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> t+(decade-10)-1</t>
+  </si>
+  <si>
+    <t>% to kill</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,8 +284,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -290,7 +341,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -347,20 +404,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -681,23 +738,23 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.5546875" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="11.5703125" style="7"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.5546875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -735,7 +792,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -774,7 +831,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <f>+A2+1</f>
         <v>2</v>
@@ -814,7 +871,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <f>+A3+1</f>
         <v>3</v>
@@ -854,7 +911,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <f>+A4+1</f>
         <v>4</v>
@@ -894,7 +951,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <f>+A5+1</f>
         <v>5</v>
@@ -934,7 +991,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <f>+A6+1</f>
         <v>6</v>
@@ -974,7 +1031,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f t="shared" ref="A8:A34" si="2">+A7+1</f>
         <v>7</v>
@@ -1014,7 +1071,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -1054,7 +1111,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -1094,7 +1151,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -1134,7 +1191,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -1174,7 +1231,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -1214,7 +1271,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -1254,7 +1311,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -1294,7 +1351,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -1334,7 +1391,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -1374,7 +1431,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -1414,7 +1471,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -1454,7 +1511,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -1494,7 +1551,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -1534,7 +1591,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -1574,7 +1631,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -1614,7 +1671,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -1654,7 +1711,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -1694,7 +1751,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -1734,7 +1791,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
         <f t="shared" si="2"/>
         <v>26</v>
@@ -1774,7 +1831,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14">
         <f t="shared" si="2"/>
         <v>27</v>
@@ -1814,7 +1871,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
         <f t="shared" si="2"/>
         <v>28</v>
@@ -1854,7 +1911,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="14">
         <f t="shared" si="2"/>
         <v>29</v>
@@ -1894,7 +1951,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14">
         <f t="shared" si="2"/>
         <v>30</v>
@@ -1934,7 +1991,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14">
         <f t="shared" si="2"/>
         <v>31</v>
@@ -1974,7 +2031,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="14">
         <f t="shared" si="2"/>
         <v>32</v>
@@ -2014,7 +2071,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="14">
         <f t="shared" si="2"/>
         <v>33</v>
@@ -2064,25 +2121,25 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A22" activeCellId="5" sqref="A4:XFD4 A7:XFD7 A10:XFD13 A16:XFD16 A19:XFD19 A22:XFD25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" style="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="18" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="18" customWidth="1"/>
-    <col min="9" max="9" width="26.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.5703125" style="18"/>
+    <col min="9" max="9" width="26.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.5546875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -2117,7 +2174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -2145,11 +2202,11 @@
       <c r="I2" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18">
         <f>+A2+1</f>
         <v>2</v>
@@ -2167,7 +2224,7 @@
       <c r="E3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="19" t="s">
         <v>29</v>
       </c>
       <c r="G3" s="18" t="s">
@@ -2179,45 +2236,45 @@
       <c r="I3" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
+    <row r="4" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="27">
         <f>+A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="27">
         <f t="shared" ref="C4:C25" si="0">+C3</f>
         <v>15</v>
       </c>
-      <c r="D4" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="20" t="s">
+      <c r="D4" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="20" t="s">
+      <c r="G4" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="28" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
         <f>+A4+1</f>
         <v>4</v>
@@ -2241,17 +2298,17 @@
       <c r="G5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="22" t="s">
+      <c r="H5" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19">
         <f t="shared" ref="A6:A25" si="1">+A5+1</f>
         <v>5</v>
@@ -2275,51 +2332,51 @@
       <c r="G6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="21" t="s">
+      <c r="H6" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="19" t="s">
         <v>61</v>
       </c>
       <c r="J6" s="26" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
+    <row r="7" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="27">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="27">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D7" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="20" t="s">
+      <c r="D7" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="20" t="s">
+      <c r="F7" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="J7" s="25" t="s">
+      <c r="J7" s="28" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -2337,23 +2394,23 @@
       <c r="E8" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="19" t="s">
         <v>29</v>
       </c>
       <c r="G8" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="22" t="s">
+      <c r="H8" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -2371,159 +2428,159 @@
       <c r="E9" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="19" t="s">
         <v>29</v>
       </c>
       <c r="G9" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="21" t="s">
+      <c r="H9" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="19" t="s">
         <v>61</v>
       </c>
       <c r="J9" s="26" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20">
+    <row r="10" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="27">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="27">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="20" t="s">
+      <c r="D10" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="22" t="s">
+      <c r="G10" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="J10" s="25" t="s">
+      <c r="J10" s="28" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
+    <row r="11" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="27">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="27">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D11" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="20" t="s">
+      <c r="D11" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="21" t="s">
+      <c r="G11" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="J11" s="25" t="s">
+      <c r="J11" s="28" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20">
+    <row r="12" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="27">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="27">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D12" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="20" t="s">
+      <c r="D12" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="22" t="s">
+      <c r="F12" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="J12" s="25" t="s">
+      <c r="J12" s="28" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B13" s="20" t="s">
+    <row r="13" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="27">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="27">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D13" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="20" t="s">
+      <c r="D13" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="21" t="s">
+      <c r="F13" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="J13" s="25" t="s">
+      <c r="J13" s="28" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -2538,7 +2595,7 @@
       <c r="D14" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="19" t="s">
         <v>29</v>
       </c>
       <c r="F14" s="19" t="s">
@@ -2553,11 +2610,11 @@
       <c r="I14" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -2572,10 +2629,10 @@
       <c r="D15" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="21" t="s">
+      <c r="E15" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="19" t="s">
         <v>29</v>
       </c>
       <c r="G15" s="18" t="s">
@@ -2587,45 +2644,45 @@
       <c r="I15" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20">
+    <row r="16" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="27">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="27">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D16" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="20" t="s">
+      <c r="D16" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="20" t="s">
+      <c r="G16" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="18" t="s">
+      <c r="I16" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="J16" s="25" t="s">
+      <c r="J16" s="28" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -2640,7 +2697,7 @@
       <c r="D17" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="19" t="s">
         <v>29</v>
       </c>
       <c r="F17" s="18" t="s">
@@ -2649,17 +2706,17 @@
       <c r="G17" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" s="22" t="s">
+      <c r="H17" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -2674,7 +2731,7 @@
       <c r="D18" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="19" t="s">
         <v>29</v>
       </c>
       <c r="F18" s="19" t="s">
@@ -2683,51 +2740,51 @@
       <c r="G18" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" s="21" t="s">
+      <c r="H18" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="19" t="s">
         <v>61</v>
       </c>
       <c r="J18" s="26" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20">
+    <row r="19" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="27">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="27">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D19" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="20" t="s">
+      <c r="D19" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="18" t="s">
+      <c r="I19" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="J19" s="25" t="s">
+      <c r="J19" s="28" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="18">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -2742,26 +2799,26 @@
       <c r="D20" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="21" t="s">
+      <c r="E20" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="19" t="s">
         <v>29</v>
       </c>
       <c r="G20" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="I20" s="22" t="s">
+      <c r="H20" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -2775,217 +2832,3329 @@
       <c r="D21" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="21" t="s">
+      <c r="E21" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="19" t="s">
         <v>29</v>
       </c>
       <c r="G21" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" s="21" t="s">
+      <c r="H21" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="19" t="s">
         <v>61</v>
       </c>
       <c r="J21" s="26" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20">
+    <row r="22" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="27">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="20" t="s">
+      <c r="C22" s="27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="I22" s="22" t="s">
+      <c r="G22" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="J22" s="25" t="s">
+      <c r="J22" s="28" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20">
+    <row r="23" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="27">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="20" t="s">
+      <c r="C23" s="27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="I23" s="21" t="s">
+      <c r="G23" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="J23" s="25" t="s">
+      <c r="J23" s="28" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20">
+    <row r="24" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="27">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="H24" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="I24" s="22" t="s">
+      <c r="C24" s="27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="J24" s="25" t="s">
+      <c r="J24" s="28" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20">
+    <row r="25" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="27">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="H25" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="I25" s="21" t="s">
+      <c r="C25" s="27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="J25" s="25" t="s">
+      <c r="J25" s="28" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F26" s="19"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E27" s="23"/>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E27" s="21"/>
       <c r="F27" s="19"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F28" s="19"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E29" s="23"/>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E29" s="21"/>
       <c r="F29" s="19"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E31" s="23"/>
-    </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E33" s="23"/>
-    </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E35" s="23"/>
-    </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E37" s="23"/>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E31" s="21"/>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E33" s="21"/>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E35" s="21"/>
+    </row>
+    <row r="37" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E37" s="21"/>
       <c r="F37" s="20"/>
     </row>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F38" s="20"/>
     </row>
-    <row r="39" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F39" s="20"/>
     </row>
-    <row r="40" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F40" s="20"/>
     </row>
-    <row r="41" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F41" s="20"/>
     </row>
-    <row r="42" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F42" s="20"/>
     </row>
-    <row r="43" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F43" s="20"/>
     </row>
-    <row r="44" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F44" s="20"/>
     </row>
-    <row r="45" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F45" s="20"/>
     </row>
-    <row r="46" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:6" x14ac:dyDescent="0.3">
       <c r="F46" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87314467-3CFF-4C45-AF24-4F998335DCF5}">
+  <dimension ref="A1:H92"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D1" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="22">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f>+C3+2010-1</f>
+        <v>2010</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <f>QUOTIENT(C3-1,10)</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>+(1+D3)*10</f>
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <f>$C3 -($E3-10) -1</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>+F3+1</f>
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <f>10 -($C3-1 -($E3-10))</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="22">
+        <f>+A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B67" si="0">+C4+2010-1</f>
+        <v>2011</v>
+      </c>
+      <c r="C4">
+        <f>+C3+1</f>
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D67" si="1">QUOTIENT(C4-1,10)</f>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E67" si="2">+(1+D4)*10</f>
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F3:H23" si="3">C4 -(E4-10) -1</f>
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <f>+F4+1</f>
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H67" si="4">10 -($C4 -($E4-10) -1)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="22">
+        <f t="shared" ref="A5:A12" si="5">+A4+1</f>
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>2012</v>
+      </c>
+      <c r="C5">
+        <f>+C4+1</f>
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <f>C5 -(E5-10) -1</f>
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <f>+F5+1</f>
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="22">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>2013</v>
+      </c>
+      <c r="C6">
+        <f>+C5+1</f>
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <f>+F6+1</f>
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="22">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="C7">
+        <f>+C6+1</f>
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <f>+F7+1</f>
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="22">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>2015</v>
+      </c>
+      <c r="C8">
+        <f>+C7+1</f>
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <f>+F8+1</f>
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="22">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="C9">
+        <f>+C8+1</f>
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <f>+F9+1</f>
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="22">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>2017</v>
+      </c>
+      <c r="C10">
+        <f>+C9+1</f>
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <f>+F10+1</f>
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="22">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="C11">
+        <f>+C10+1</f>
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="G11">
+        <f>+F11+1</f>
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="22">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="C12">
+        <f>+C11+1</f>
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <f>+F12+1</f>
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="23">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="C13">
+        <f>+C12+1</f>
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ref="G13:G76" si="6">+F13+1</f>
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="23">
+        <f>+A13+1</f>
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+      <c r="C14">
+        <f>+C13+1</f>
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="23">
+        <f t="shared" ref="A15:A78" si="7">+A14+1</f>
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="C15">
+        <f>+C14+1</f>
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="23">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="C16">
+        <f>+C15+1</f>
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="23">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="C17">
+        <f>+C16+1</f>
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="23">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="C18">
+        <f>+C17+1</f>
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="23">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="C19">
+        <f>+C18+1</f>
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="23">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="C20">
+        <f>+C19+1</f>
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="23">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="C21">
+        <f>+C20+1</f>
+        <v>19</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="23">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="C22">
+        <f>+C21+1</f>
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="23">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="C23">
+        <f>+C22+1</f>
+        <v>21</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="23">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>2031</v>
+      </c>
+      <c r="C24">
+        <f>+C23+1</f>
+        <v>22</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ref="F14:F77" si="8">C24 -(E24-10) -1</f>
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="23">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>2032</v>
+      </c>
+      <c r="C25">
+        <f>+C24+1</f>
+        <v>23</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="23">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>2033</v>
+      </c>
+      <c r="C26">
+        <f>+C25+1</f>
+        <v>24</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="23">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>2034</v>
+      </c>
+      <c r="C27">
+        <f>+C26+1</f>
+        <v>25</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="23">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>2035</v>
+      </c>
+      <c r="C28">
+        <f>+C27+1</f>
+        <v>26</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="23">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>2036</v>
+      </c>
+      <c r="C29">
+        <f>+C28+1</f>
+        <v>27</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="23">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>2037</v>
+      </c>
+      <c r="C30">
+        <f>+C29+1</f>
+        <v>28</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="23">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>2038</v>
+      </c>
+      <c r="C31">
+        <f>+C30+1</f>
+        <v>29</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="23">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>2039</v>
+      </c>
+      <c r="C32">
+        <f>+C31+1</f>
+        <v>30</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="23">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>2040</v>
+      </c>
+      <c r="C33">
+        <f>+C32+1</f>
+        <v>31</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="23">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>2041</v>
+      </c>
+      <c r="C34">
+        <f>+C33+1</f>
+        <v>32</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="23">
+        <f t="shared" si="7"/>
+        <v>23</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>2042</v>
+      </c>
+      <c r="C35">
+        <f>+C34+1</f>
+        <v>33</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="23">
+        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>2043</v>
+      </c>
+      <c r="C36">
+        <f>+C35+1</f>
+        <v>34</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="23">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>2044</v>
+      </c>
+      <c r="C37">
+        <f>+C36+1</f>
+        <v>35</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="23">
+        <f t="shared" si="7"/>
+        <v>26</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>2045</v>
+      </c>
+      <c r="C38">
+        <f>+C37+1</f>
+        <v>36</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="23">
+        <f t="shared" si="7"/>
+        <v>27</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>2046</v>
+      </c>
+      <c r="C39">
+        <f>+C38+1</f>
+        <v>37</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="23">
+        <f t="shared" si="7"/>
+        <v>28</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>2047</v>
+      </c>
+      <c r="C40">
+        <f>+C39+1</f>
+        <v>38</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="23">
+        <f t="shared" si="7"/>
+        <v>29</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>2048</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ref="C41:C92" si="9">+C40+1</f>
+        <v>39</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="23">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>2049</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="23">
+        <f t="shared" si="7"/>
+        <v>31</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>2050</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="9"/>
+        <v>41</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="23">
+        <f t="shared" si="7"/>
+        <v>32</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>2051</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="9"/>
+        <v>42</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="23">
+        <f t="shared" si="7"/>
+        <v>33</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>2052</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="9"/>
+        <v>43</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="23">
+        <f t="shared" si="7"/>
+        <v>34</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>2053</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="9"/>
+        <v>44</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="23">
+        <f t="shared" si="7"/>
+        <v>35</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>2054</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="9"/>
+        <v>45</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="23">
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>2055</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="9"/>
+        <v>46</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="23">
+        <f t="shared" si="7"/>
+        <v>37</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>2056</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="9"/>
+        <v>47</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="23">
+        <f t="shared" si="7"/>
+        <v>38</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>2057</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="9"/>
+        <v>48</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="23">
+        <f t="shared" si="7"/>
+        <v>39</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>2058</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="23">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>2059</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="23">
+        <f t="shared" si="7"/>
+        <v>41</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>2060</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="9"/>
+        <v>51</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="23">
+        <f t="shared" si="7"/>
+        <v>42</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>2061</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="9"/>
+        <v>52</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="23">
+        <f t="shared" si="7"/>
+        <v>43</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>2062</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="23">
+        <f t="shared" si="7"/>
+        <v>44</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>2063</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="9"/>
+        <v>54</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="23">
+        <f t="shared" si="7"/>
+        <v>45</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>2064</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="9"/>
+        <v>55</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="23">
+        <f t="shared" si="7"/>
+        <v>46</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>2065</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="9"/>
+        <v>56</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="23">
+        <f t="shared" si="7"/>
+        <v>47</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>2066</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="9"/>
+        <v>57</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="23">
+        <f t="shared" si="7"/>
+        <v>48</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>2067</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="9"/>
+        <v>58</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="23">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>2068</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="9"/>
+        <v>59</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="23">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>2069</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="9"/>
+        <v>60</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="23">
+        <f t="shared" si="7"/>
+        <v>51</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>2070</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="9"/>
+        <v>61</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="23">
+        <f t="shared" si="7"/>
+        <v>52</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>2071</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="9"/>
+        <v>62</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="23">
+        <f t="shared" si="7"/>
+        <v>53</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>2072</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="9"/>
+        <v>63</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="23">
+        <f t="shared" si="7"/>
+        <v>54</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>2073</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="9"/>
+        <v>64</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="23">
+        <f t="shared" si="7"/>
+        <v>55</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="0"/>
+        <v>2074</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="9"/>
+        <v>65</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="23">
+        <f t="shared" si="7"/>
+        <v>56</v>
+      </c>
+      <c r="B68">
+        <f t="shared" ref="B68:B92" si="10">+C68+2010-1</f>
+        <v>2075</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="9"/>
+        <v>66</v>
+      </c>
+      <c r="D68">
+        <f t="shared" ref="D68:D92" si="11">QUOTIENT(C68-1,10)</f>
+        <v>6</v>
+      </c>
+      <c r="E68">
+        <f t="shared" ref="E68:E92" si="12">+(1+D68)*10</f>
+        <v>70</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="H68">
+        <f t="shared" ref="H68:H92" si="13">10 -($C68 -($E68-10) -1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="23">
+        <f t="shared" si="7"/>
+        <v>57</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="10"/>
+        <v>2076</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="9"/>
+        <v>67</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="12"/>
+        <v>70</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="23">
+        <f t="shared" si="7"/>
+        <v>58</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="10"/>
+        <v>2077</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="9"/>
+        <v>68</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="12"/>
+        <v>70</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="23">
+        <f t="shared" si="7"/>
+        <v>59</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="10"/>
+        <v>2078</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="9"/>
+        <v>69</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="12"/>
+        <v>70</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="23">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="10"/>
+        <v>2079</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="9"/>
+        <v>70</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="12"/>
+        <v>70</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="23">
+        <f t="shared" si="7"/>
+        <v>61</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="10"/>
+        <v>2080</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="9"/>
+        <v>71</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="12"/>
+        <v>80</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="23">
+        <f t="shared" si="7"/>
+        <v>62</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="10"/>
+        <v>2081</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="9"/>
+        <v>72</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="12"/>
+        <v>80</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="23">
+        <f t="shared" si="7"/>
+        <v>63</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="10"/>
+        <v>2082</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="9"/>
+        <v>73</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="12"/>
+        <v>80</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="23">
+        <f t="shared" si="7"/>
+        <v>64</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="10"/>
+        <v>2083</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="9"/>
+        <v>74</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="12"/>
+        <v>80</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="23">
+        <f t="shared" si="7"/>
+        <v>65</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="10"/>
+        <v>2084</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="9"/>
+        <v>75</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="12"/>
+        <v>80</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="G77">
+        <f t="shared" ref="G77:G92" si="14">+F77+1</f>
+        <v>5</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="23">
+        <f t="shared" si="7"/>
+        <v>66</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="10"/>
+        <v>2085</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="9"/>
+        <v>76</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="12"/>
+        <v>80</v>
+      </c>
+      <c r="F78">
+        <f t="shared" ref="F78:F92" si="15">C78 -(E78-10) -1</f>
+        <v>5</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="23">
+        <f t="shared" ref="A79:A92" si="16">+A78+1</f>
+        <v>67</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="10"/>
+        <v>2086</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="9"/>
+        <v>77</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="12"/>
+        <v>80</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="23">
+        <f t="shared" si="16"/>
+        <v>68</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="10"/>
+        <v>2087</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="9"/>
+        <v>78</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="12"/>
+        <v>80</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="23">
+        <f t="shared" si="16"/>
+        <v>69</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="10"/>
+        <v>2088</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="9"/>
+        <v>79</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="12"/>
+        <v>80</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="23">
+        <f t="shared" si="16"/>
+        <v>70</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="10"/>
+        <v>2089</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="12"/>
+        <v>80</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="23">
+        <f t="shared" si="16"/>
+        <v>71</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="10"/>
+        <v>2090</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="9"/>
+        <v>81</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="12"/>
+        <v>90</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="23">
+        <f t="shared" si="16"/>
+        <v>72</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="10"/>
+        <v>2091</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="9"/>
+        <v>82</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="12"/>
+        <v>90</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="23">
+        <f t="shared" si="16"/>
+        <v>73</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="10"/>
+        <v>2092</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="9"/>
+        <v>83</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="12"/>
+        <v>90</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="23">
+        <f t="shared" si="16"/>
+        <v>74</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="10"/>
+        <v>2093</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="9"/>
+        <v>84</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="12"/>
+        <v>90</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="23">
+        <f t="shared" si="16"/>
+        <v>75</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="10"/>
+        <v>2094</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="9"/>
+        <v>85</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="12"/>
+        <v>90</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="23">
+        <f t="shared" si="16"/>
+        <v>76</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="10"/>
+        <v>2095</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="9"/>
+        <v>86</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="12"/>
+        <v>90</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="23">
+        <f t="shared" si="16"/>
+        <v>77</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="10"/>
+        <v>2096</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="9"/>
+        <v>87</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="12"/>
+        <v>90</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="23">
+        <f t="shared" si="16"/>
+        <v>78</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="10"/>
+        <v>2097</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="9"/>
+        <v>88</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="12"/>
+        <v>90</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" s="23">
+        <f t="shared" si="16"/>
+        <v>79</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="10"/>
+        <v>2098</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="9"/>
+        <v>89</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="12"/>
+        <v>90</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" s="23">
+        <f t="shared" si="16"/>
+        <v>80</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="10"/>
+        <v>2099</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="12"/>
+        <v>90</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/scenarios.xlsx
+++ b/scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\MEDMOD\SpatialModelsR\MEDFIRE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76618519-FD56-4155-BAC9-953006056A8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C3B3AD-9395-432A-8ABB-570A8E554326}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" firstSheet="1" activeTab="1" xr2:uid="{9687B63A-F89B-47E3-AB36-04820FAA1C94}"/>
+    <workbookView xWindow="31440" yWindow="1020" windowWidth="15120" windowHeight="10650" firstSheet="1" activeTab="2" xr2:uid="{9687B63A-F89B-47E3-AB36-04820FAA1C94}"/>
   </bookViews>
   <sheets>
     <sheet name="Obj4" sheetId="1" r:id="rId1"/>
@@ -245,10 +245,10 @@
     <t>floor((t-1)/10)</t>
   </si>
   <si>
-    <t xml:space="preserve"> t+(decade-10)-1</t>
-  </si>
-  <si>
     <t>% to kill</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> t-(decade-10)-1</t>
   </si>
 </sst>
 </file>
@@ -409,15 +409,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2120,8 +2120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC90E6F-89AC-4A3D-828F-2B7D50492705}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" activeCellId="5" sqref="A4:XFD4 A7:XFD7 A10:XFD13 A16:XFD16 A19:XFD19 A22:XFD25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2182,7 +2182,7 @@
         <v>42</v>
       </c>
       <c r="C2" s="18">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>29</v>
@@ -2216,7 +2216,7 @@
       </c>
       <c r="C3" s="18">
         <f>+C2</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>29</v>
@@ -2240,37 +2240,37 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="27">
+    <row r="4" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="26">
         <f>+A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="26">
         <f t="shared" ref="C4:C25" si="0">+C3</f>
-        <v>15</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="27" t="s">
+      <c r="G4" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J4" s="27" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2284,7 +2284,7 @@
       </c>
       <c r="C5" s="18">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>29</v>
@@ -2318,7 +2318,7 @@
       </c>
       <c r="C6" s="19">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>29</v>
@@ -2338,41 +2338,41 @@
       <c r="I6" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="J6" s="26" t="s">
+      <c r="J6" s="25" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="27">
+    <row r="7" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="26">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="26">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="27" t="s">
+      <c r="F7" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="27" t="s">
+      <c r="I7" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="J7" s="28" t="s">
+      <c r="J7" s="27" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2386,7 +2386,7 @@
       </c>
       <c r="C8" s="18">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>29</v>
@@ -2420,7 +2420,7 @@
       </c>
       <c r="C9" s="19">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>29</v>
@@ -2440,143 +2440,143 @@
       <c r="I9" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="J9" s="25" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27">
+    <row r="10" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="26">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="26">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="27" t="s">
+      <c r="G10" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="J10" s="28" t="s">
+      <c r="J10" s="27" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="27">
+    <row r="11" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="26">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="26">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="27" t="s">
+      <c r="G11" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="J11" s="28" t="s">
+      <c r="J11" s="27" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27">
+    <row r="12" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="26">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="26">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="27" t="s">
+      <c r="F12" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="J12" s="28" t="s">
+      <c r="J12" s="27" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B13" s="27" t="s">
+    <row r="13" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="26">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="26">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="27" t="s">
+      <c r="F13" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="J13" s="28" t="s">
+      <c r="J13" s="27" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2590,7 +2590,7 @@
       </c>
       <c r="C14" s="18">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>29</v>
@@ -2624,7 +2624,7 @@
       </c>
       <c r="C15" s="18">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>29</v>
@@ -2648,37 +2648,37 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="27">
+    <row r="16" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="26">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="26">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="27" t="s">
+      <c r="G16" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="27" t="s">
+      <c r="I16" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="J16" s="28" t="s">
+      <c r="J16" s="27" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2692,7 +2692,7 @@
       </c>
       <c r="C17" s="18">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>29</v>
@@ -2726,7 +2726,7 @@
       </c>
       <c r="C18" s="19">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>29</v>
@@ -2746,41 +2746,41 @@
       <c r="I18" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="J18" s="26" t="s">
+      <c r="J18" s="25" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="27">
+    <row r="19" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="26">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="26">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="27" t="s">
+      <c r="I19" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="J19" s="28" t="s">
+      <c r="J19" s="27" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2794,7 +2794,7 @@
       </c>
       <c r="C20" s="18">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>29</v>
@@ -2827,7 +2827,8 @@
         <v>53</v>
       </c>
       <c r="C21" s="19">
-        <v>1</v>
+        <f>+C20</f>
+        <v>20</v>
       </c>
       <c r="D21" s="19" t="s">
         <v>29</v>
@@ -2847,143 +2848,143 @@
       <c r="I21" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="J21" s="26" t="s">
+      <c r="J21" s="25" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="27">
+    <row r="22" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="26">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="27">
+      <c r="C22" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="I22" s="27" t="s">
+      <c r="G22" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="J22" s="28" t="s">
+      <c r="J22" s="27" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="27">
+    <row r="23" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="26">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="27">
+      <c r="C23" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="I23" s="27" t="s">
+      <c r="G23" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="J23" s="28" t="s">
+      <c r="J23" s="27" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="27">
+    <row r="24" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="26">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="27">
+      <c r="C24" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="H24" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="I24" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="J24" s="28" t="s">
+      <c r="J24" s="27" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="27">
+    <row r="25" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="26">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="27">
+      <c r="C25" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="H25" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="I25" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="J25" s="28" t="s">
+      <c r="J25" s="27" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3051,8 +3052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87314467-3CFF-4C45-AF24-4F998335DCF5}">
   <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3062,12 +3063,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="25" t="s">
-        <v>69</v>
+      <c r="E1" s="28"/>
+      <c r="F1" s="24" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -3090,7 +3091,7 @@
         <v>62</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -3117,7 +3118,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <f>+F3+1</f>
+        <f t="shared" ref="G3:G12" si="0">+F3+1</f>
         <v>1</v>
       </c>
       <c r="H3">
@@ -3131,303 +3132,303 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B67" si="0">+C4+2010-1</f>
+        <f t="shared" ref="B4:B67" si="1">+C4+2010-1</f>
         <v>2011</v>
       </c>
       <c r="C4">
-        <f>+C3+1</f>
+        <f t="shared" ref="C4:C40" si="2">+C3+1</f>
         <v>2</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D67" si="1">QUOTIENT(C4-1,10)</f>
+        <f t="shared" ref="D4:D67" si="3">QUOTIENT(C4-1,10)</f>
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E67" si="2">+(1+D4)*10</f>
+        <f t="shared" ref="E4:E67" si="4">+(1+D4)*10</f>
         <v>10</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F3:H23" si="3">C4 -(E4-10) -1</f>
+        <f t="shared" ref="F4:F67" si="5">$C4 -($E4-10) -1</f>
         <v>1</v>
       </c>
       <c r="G4">
-        <f>+F4+1</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H67" si="4">10 -($C4 -($E4-10) -1)</f>
+        <f t="shared" ref="H4:H67" si="6">10 -($C4 -($E4-10) -1)</f>
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="22">
-        <f t="shared" ref="A5:A12" si="5">+A4+1</f>
+        <f t="shared" ref="A5:A12" si="7">+A4+1</f>
         <v>3</v>
       </c>
       <c r="B5">
+        <f t="shared" si="1"/>
+        <v>2012</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="0"/>
-        <v>2012</v>
-      </c>
-      <c r="C5">
-        <f>+C4+1</f>
         <v>3</v>
       </c>
-      <c r="D5">
-        <f t="shared" si="1"/>
+      <c r="H5">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="22">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>2013</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E5">
+      <c r="E6">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="22">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>2014</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="22">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>2015</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="22">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>2016</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="22">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>2017</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="22">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>2018</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="22">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>2019</v>
+      </c>
+      <c r="C12">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="F5">
-        <f>C5 -(E5-10) -1</f>
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <f>+F5+1</f>
-        <v>3</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="22">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="B6">
+      <c r="D12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="G12">
         <f t="shared" si="0"/>
-        <v>2013</v>
-      </c>
-      <c r="C6">
-        <f>+C5+1</f>
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="F6">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <f>+F6+1</f>
-        <v>4</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="22">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <f t="shared" si="0"/>
-        <v>2014</v>
-      </c>
-      <c r="C7">
-        <f>+C6+1</f>
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="G7">
-        <f>+F7+1</f>
-        <v>5</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="22">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>2015</v>
-      </c>
-      <c r="C8">
-        <f>+C7+1</f>
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="G8">
-        <f>+F8+1</f>
-        <v>6</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="22">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="0"/>
-        <v>2016</v>
-      </c>
-      <c r="C9">
-        <f>+C8+1</f>
-        <v>7</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="G9">
-        <f>+F9+1</f>
-        <v>7</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="22">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <f t="shared" si="0"/>
-        <v>2017</v>
-      </c>
-      <c r="C10">
-        <f>+C9+1</f>
-        <v>8</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="G10">
-        <f>+F10+1</f>
-        <v>8</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="22">
-        <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <f t="shared" si="0"/>
-        <v>2018</v>
-      </c>
-      <c r="C11">
-        <f>+C10+1</f>
-        <v>9</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="G11">
-        <f>+F11+1</f>
-        <v>9</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="22">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <f t="shared" si="0"/>
-        <v>2019</v>
-      </c>
-      <c r="C12">
-        <f>+C11+1</f>
-        <v>10</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="G12">
-        <f>+F12+1</f>
-        <v>10</v>
-      </c>
       <c r="H12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -3436,31 +3437,31 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2020</v>
       </c>
       <c r="C13">
-        <f>+C12+1</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="D13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="F13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G13">
-        <f t="shared" ref="G13:G76" si="6">+F13+1</f>
+        <f t="shared" ref="G13:G76" si="8">+F13+1</f>
         <v>1</v>
       </c>
       <c r="H13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
     </row>
@@ -3470,2683 +3471,2683 @@
         <v>2</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2021</v>
       </c>
       <c r="C14">
-        <f>+C13+1</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="D14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E14">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="23">
+        <f t="shared" ref="A15:A78" si="9">+A14+1</f>
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>2022</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="23">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="23">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>2024</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="23">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>2025</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="23">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>2026</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="23">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>2027</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="23">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>2028</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="23">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="1"/>
+        <v>2029</v>
+      </c>
+      <c r="C22">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="F14">
+      <c r="D22">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G14">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="4"/>
+      <c r="E22">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="23">
-        <f t="shared" ref="A15:A78" si="7">+A14+1</f>
-        <v>3</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
-      <c r="C15">
-        <f>+C14+1</f>
-        <v>13</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="23">
-        <f t="shared" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="0"/>
-        <v>2023</v>
-      </c>
-      <c r="C16">
-        <f>+C15+1</f>
-        <v>14</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="23">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="B17">
-        <f t="shared" si="0"/>
-        <v>2024</v>
-      </c>
-      <c r="C17">
-        <f>+C16+1</f>
-        <v>15</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="23">
-        <f t="shared" si="7"/>
-        <v>6</v>
-      </c>
-      <c r="B18">
-        <f t="shared" si="0"/>
-        <v>2025</v>
-      </c>
-      <c r="C18">
-        <f>+C17+1</f>
-        <v>16</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="23">
-        <f t="shared" si="7"/>
-        <v>7</v>
-      </c>
-      <c r="B19">
-        <f t="shared" si="0"/>
-        <v>2026</v>
-      </c>
-      <c r="C19">
-        <f>+C18+1</f>
-        <v>17</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="23">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="B20">
-        <f t="shared" si="0"/>
-        <v>2027</v>
-      </c>
-      <c r="C20">
-        <f>+C19+1</f>
-        <v>18</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="23">
-        <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="B21">
-        <f t="shared" si="0"/>
-        <v>2028</v>
-      </c>
-      <c r="C21">
-        <f>+C20+1</f>
-        <v>19</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="23">
-        <f t="shared" si="7"/>
+      <c r="G22">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="B22">
-        <f t="shared" si="0"/>
-        <v>2029</v>
-      </c>
-      <c r="C22">
-        <f>+C21+1</f>
-        <v>20</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
       <c r="H22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="B23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2030</v>
       </c>
       <c r="C23">
-        <f>+C22+1</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="D23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E23">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="23">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="1"/>
+        <v>2031</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="23">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>2032</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="23">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="1"/>
+        <v>2033</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="23">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="1"/>
+        <v>2034</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="23">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="1"/>
+        <v>2035</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="23">
+        <f t="shared" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="1"/>
+        <v>2036</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="23">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="1"/>
+        <v>2037</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="23">
+        <f t="shared" si="9"/>
+        <v>19</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="1"/>
+        <v>2038</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="23">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="1"/>
+        <v>2039</v>
+      </c>
+      <c r="C32">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="F23">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="4"/>
+      <c r="D32">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="23">
-        <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-      <c r="B24">
-        <f t="shared" si="0"/>
-        <v>2031</v>
-      </c>
-      <c r="C24">
-        <f>+C23+1</f>
-        <v>22</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="F24">
-        <f t="shared" ref="F14:F77" si="8">C24 -(E24-10) -1</f>
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="23">
-        <f t="shared" si="7"/>
-        <v>13</v>
-      </c>
-      <c r="B25">
-        <f t="shared" si="0"/>
-        <v>2032</v>
-      </c>
-      <c r="C25">
-        <f>+C24+1</f>
-        <v>23</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="23">
-        <f t="shared" si="7"/>
-        <v>14</v>
-      </c>
-      <c r="B26">
-        <f t="shared" si="0"/>
-        <v>2033</v>
-      </c>
-      <c r="C26">
-        <f>+C25+1</f>
-        <v>24</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="23">
-        <f t="shared" si="7"/>
-        <v>15</v>
-      </c>
-      <c r="B27">
-        <f t="shared" si="0"/>
-        <v>2034</v>
-      </c>
-      <c r="C27">
-        <f>+C26+1</f>
-        <v>25</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="23">
-        <f t="shared" si="7"/>
-        <v>16</v>
-      </c>
-      <c r="B28">
-        <f t="shared" si="0"/>
-        <v>2035</v>
-      </c>
-      <c r="C28">
-        <f>+C27+1</f>
-        <v>26</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="23">
-        <f t="shared" si="7"/>
-        <v>17</v>
-      </c>
-      <c r="B29">
-        <f t="shared" si="0"/>
-        <v>2036</v>
-      </c>
-      <c r="C29">
-        <f>+C28+1</f>
-        <v>27</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="23">
-        <f t="shared" si="7"/>
-        <v>18</v>
-      </c>
-      <c r="B30">
-        <f t="shared" si="0"/>
-        <v>2037</v>
-      </c>
-      <c r="C30">
-        <f>+C29+1</f>
-        <v>28</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="23">
-        <f t="shared" si="7"/>
-        <v>19</v>
-      </c>
-      <c r="B31">
-        <f t="shared" si="0"/>
-        <v>2038</v>
-      </c>
-      <c r="C31">
-        <f>+C30+1</f>
-        <v>29</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="23">
-        <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="B32">
-        <f t="shared" si="0"/>
-        <v>2039</v>
-      </c>
-      <c r="C32">
-        <f>+C31+1</f>
-        <v>30</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
       <c r="H32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
       <c r="B33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2040</v>
       </c>
       <c r="C33">
-        <f>+C32+1</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="D33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="F33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>22</v>
       </c>
       <c r="B34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2041</v>
       </c>
       <c r="C34">
-        <f>+C33+1</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="D34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="F34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="H34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>23</v>
       </c>
       <c r="B35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2042</v>
       </c>
       <c r="C35">
-        <f>+C34+1</f>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="D35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="F35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="G35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="H35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
       <c r="B36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2043</v>
       </c>
       <c r="C36">
-        <f>+C35+1</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="D36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="F36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="G36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="H36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="B37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2044</v>
       </c>
       <c r="C37">
-        <f>+C36+1</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="D37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="F37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="G37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="H37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="B38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2045</v>
       </c>
       <c r="C38">
-        <f>+C37+1</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="D38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="F38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="G38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="H38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
       <c r="B39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2046</v>
       </c>
       <c r="C39">
-        <f>+C38+1</f>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="D39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="F39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="G39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="H39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
       <c r="B40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2047</v>
       </c>
       <c r="C40">
-        <f>+C39+1</f>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="D40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="F40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="G40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="H40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
       <c r="B41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2048</v>
       </c>
       <c r="C41">
-        <f t="shared" ref="C41:C92" si="9">+C40+1</f>
+        <f t="shared" ref="C41:C92" si="10">+C40+1</f>
         <v>39</v>
       </c>
       <c r="D41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="F41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="G41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="H41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="B42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2049</v>
       </c>
       <c r="C42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
       <c r="D42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="E42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="F42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="G42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="H42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>31</v>
       </c>
       <c r="B43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2050</v>
       </c>
       <c r="C43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>41</v>
       </c>
       <c r="D43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="F43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>32</v>
       </c>
       <c r="B44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2051</v>
       </c>
       <c r="C44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>42</v>
       </c>
       <c r="D44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="F44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="H44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>33</v>
       </c>
       <c r="B45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2052</v>
       </c>
       <c r="C45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43</v>
       </c>
       <c r="D45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="F45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="G45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="H45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>34</v>
       </c>
       <c r="B46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2053</v>
       </c>
       <c r="C46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>44</v>
       </c>
       <c r="D46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="F46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="G46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="H46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>35</v>
       </c>
       <c r="B47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2054</v>
       </c>
       <c r="C47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>45</v>
       </c>
       <c r="D47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="F47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="G47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="H47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>36</v>
       </c>
       <c r="B48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2055</v>
       </c>
       <c r="C48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>46</v>
       </c>
       <c r="D48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="F48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="G48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="H48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>37</v>
       </c>
       <c r="B49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2056</v>
       </c>
       <c r="C49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>47</v>
       </c>
       <c r="D49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="F49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="G49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="H49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>38</v>
       </c>
       <c r="B50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2057</v>
       </c>
       <c r="C50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>48</v>
       </c>
       <c r="D50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="F50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="G50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="H50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>39</v>
       </c>
       <c r="B51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2058</v>
       </c>
       <c r="C51">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>49</v>
       </c>
       <c r="D51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="F51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="G51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="H51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
       <c r="B52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2059</v>
       </c>
       <c r="C52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>50</v>
       </c>
       <c r="D52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="F52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="G52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="H52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>41</v>
       </c>
       <c r="B53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2060</v>
       </c>
       <c r="C53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>51</v>
       </c>
       <c r="D53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="E53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="F53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>42</v>
       </c>
       <c r="B54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2061</v>
       </c>
       <c r="C54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>52</v>
       </c>
       <c r="D54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="E54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="F54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="H54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>43</v>
       </c>
       <c r="B55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2062</v>
       </c>
       <c r="C55">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>53</v>
       </c>
       <c r="D55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="E55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="F55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="G55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="H55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>44</v>
       </c>
       <c r="B56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2063</v>
       </c>
       <c r="C56">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>54</v>
       </c>
       <c r="D56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="E56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="F56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="G56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="H56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>45</v>
       </c>
       <c r="B57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2064</v>
       </c>
       <c r="C57">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>55</v>
       </c>
       <c r="D57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="E57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="F57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="G57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="H57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>46</v>
       </c>
       <c r="B58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2065</v>
       </c>
       <c r="C58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>56</v>
       </c>
       <c r="D58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="E58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="F58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="G58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="H58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>47</v>
       </c>
       <c r="B59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2066</v>
       </c>
       <c r="C59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>57</v>
       </c>
       <c r="D59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="E59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="F59">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="G59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="H59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>48</v>
       </c>
       <c r="B60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2067</v>
       </c>
       <c r="C60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>58</v>
       </c>
       <c r="D60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="E60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="F60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="G60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="H60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>49</v>
       </c>
       <c r="B61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2068</v>
       </c>
       <c r="C61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>59</v>
       </c>
       <c r="D61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="E61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="F61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="G61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="H61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="B62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2069</v>
       </c>
       <c r="C62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>60</v>
       </c>
       <c r="D62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="E62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="F62">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="G62">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="H62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>51</v>
       </c>
       <c r="B63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2070</v>
       </c>
       <c r="C63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>61</v>
       </c>
       <c r="D63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="E63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="F63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>52</v>
       </c>
       <c r="B64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2071</v>
       </c>
       <c r="C64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>62</v>
       </c>
       <c r="D64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="E64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="F64">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="H64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>53</v>
       </c>
       <c r="B65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2072</v>
       </c>
       <c r="C65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>63</v>
       </c>
       <c r="D65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="E65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="F65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="G65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="H65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>54</v>
       </c>
       <c r="B66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2073</v>
       </c>
       <c r="C66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>64</v>
       </c>
       <c r="D66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="E66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="F66">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="G66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="H66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>55</v>
       </c>
       <c r="B67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2074</v>
       </c>
       <c r="C67">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>65</v>
       </c>
       <c r="D67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="E67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="F67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="G67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="H67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>56</v>
       </c>
       <c r="B68">
-        <f t="shared" ref="B68:B92" si="10">+C68+2010-1</f>
+        <f t="shared" ref="B68:B92" si="11">+C68+2010-1</f>
         <v>2075</v>
       </c>
       <c r="C68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>66</v>
       </c>
       <c r="D68">
-        <f t="shared" ref="D68:D92" si="11">QUOTIENT(C68-1,10)</f>
+        <f t="shared" ref="D68:D92" si="12">QUOTIENT(C68-1,10)</f>
         <v>6</v>
       </c>
       <c r="E68">
-        <f t="shared" ref="E68:E92" si="12">+(1+D68)*10</f>
+        <f t="shared" ref="E68:E92" si="13">+(1+D68)*10</f>
         <v>70</v>
       </c>
       <c r="F68">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="F68:F92" si="14">$C68 -($E68-10) -1</f>
         <v>5</v>
       </c>
       <c r="G68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="H68">
-        <f t="shared" ref="H68:H92" si="13">10 -($C68 -($E68-10) -1)</f>
+        <f t="shared" ref="H68:H92" si="15">10 -($C68 -($E68-10) -1)</f>
         <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>57</v>
       </c>
       <c r="B69">
+        <f t="shared" si="11"/>
+        <v>2076</v>
+      </c>
+      <c r="C69">
         <f t="shared" si="10"/>
-        <v>2076</v>
-      </c>
-      <c r="C69">
-        <f t="shared" si="9"/>
         <v>67</v>
       </c>
       <c r="D69">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="E69">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>70</v>
       </c>
       <c r="F69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="G69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="H69">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>58</v>
       </c>
       <c r="B70">
+        <f t="shared" si="11"/>
+        <v>2077</v>
+      </c>
+      <c r="C70">
         <f t="shared" si="10"/>
-        <v>2077</v>
-      </c>
-      <c r="C70">
-        <f t="shared" si="9"/>
         <v>68</v>
       </c>
       <c r="D70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="E70">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>70</v>
       </c>
       <c r="F70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="G70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="H70">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>59</v>
       </c>
       <c r="B71">
+        <f t="shared" si="11"/>
+        <v>2078</v>
+      </c>
+      <c r="C71">
         <f t="shared" si="10"/>
-        <v>2078</v>
-      </c>
-      <c r="C71">
-        <f t="shared" si="9"/>
         <v>69</v>
       </c>
       <c r="D71">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="E71">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>70</v>
       </c>
       <c r="F71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="G71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="H71">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
       <c r="B72">
+        <f t="shared" si="11"/>
+        <v>2079</v>
+      </c>
+      <c r="C72">
         <f t="shared" si="10"/>
-        <v>2079</v>
-      </c>
-      <c r="C72">
-        <f t="shared" si="9"/>
         <v>70</v>
       </c>
       <c r="D72">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="E72">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>70</v>
       </c>
       <c r="F72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="G72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="H72">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>61</v>
       </c>
       <c r="B73">
+        <f t="shared" si="11"/>
+        <v>2080</v>
+      </c>
+      <c r="C73">
         <f t="shared" si="10"/>
-        <v>2080</v>
-      </c>
-      <c r="C73">
-        <f t="shared" si="9"/>
         <v>71</v>
       </c>
       <c r="D73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="E73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>80</v>
       </c>
       <c r="F73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H73">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>62</v>
       </c>
       <c r="B74">
+        <f t="shared" si="11"/>
+        <v>2081</v>
+      </c>
+      <c r="C74">
         <f t="shared" si="10"/>
-        <v>2081</v>
-      </c>
-      <c r="C74">
-        <f t="shared" si="9"/>
         <v>72</v>
       </c>
       <c r="D74">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="E74">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>80</v>
       </c>
       <c r="F74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="G74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="H74">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>63</v>
       </c>
       <c r="B75">
+        <f t="shared" si="11"/>
+        <v>2082</v>
+      </c>
+      <c r="C75">
         <f t="shared" si="10"/>
-        <v>2082</v>
-      </c>
-      <c r="C75">
-        <f t="shared" si="9"/>
         <v>73</v>
       </c>
       <c r="D75">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="E75">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>80</v>
       </c>
       <c r="F75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="G75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="H75">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>64</v>
       </c>
       <c r="B76">
+        <f t="shared" si="11"/>
+        <v>2083</v>
+      </c>
+      <c r="C76">
         <f t="shared" si="10"/>
-        <v>2083</v>
-      </c>
-      <c r="C76">
-        <f t="shared" si="9"/>
         <v>74</v>
       </c>
       <c r="D76">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="E76">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>80</v>
       </c>
       <c r="F76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="G76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="H76">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>65</v>
       </c>
       <c r="B77">
+        <f t="shared" si="11"/>
+        <v>2084</v>
+      </c>
+      <c r="C77">
         <f t="shared" si="10"/>
-        <v>2084</v>
-      </c>
-      <c r="C77">
-        <f t="shared" si="9"/>
         <v>75</v>
       </c>
       <c r="D77">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="E77">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>80</v>
       </c>
       <c r="F77">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="G77">
-        <f t="shared" ref="G77:G92" si="14">+F77+1</f>
+        <f t="shared" ref="G77:G92" si="16">+F77+1</f>
         <v>5</v>
       </c>
       <c r="H77">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>66</v>
       </c>
       <c r="B78">
+        <f t="shared" si="11"/>
+        <v>2085</v>
+      </c>
+      <c r="C78">
         <f t="shared" si="10"/>
-        <v>2085</v>
-      </c>
-      <c r="C78">
-        <f t="shared" si="9"/>
         <v>76</v>
       </c>
       <c r="D78">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="13"/>
+        <v>80</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="23">
+        <f t="shared" ref="A79:A92" si="17">+A78+1</f>
+        <v>67</v>
+      </c>
+      <c r="B79">
         <f t="shared" si="11"/>
+        <v>2086</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="10"/>
+        <v>77</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
-      <c r="E78">
-        <f t="shared" si="12"/>
+      <c r="E79">
+        <f t="shared" si="13"/>
         <v>80</v>
       </c>
-      <c r="F78">
-        <f t="shared" ref="F78:F92" si="15">C78 -(E78-10) -1</f>
-        <v>5</v>
-      </c>
-      <c r="G78">
+      <c r="F79">
         <f t="shared" si="14"/>
         <v>6</v>
       </c>
-      <c r="H78">
+      <c r="G79">
+        <f t="shared" si="16"/>
+        <v>7</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="23">
+        <f t="shared" si="17"/>
+        <v>68</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="11"/>
+        <v>2087</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="10"/>
+        <v>78</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="E80">
         <f t="shared" si="13"/>
+        <v>80</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="23">
+        <f t="shared" si="17"/>
+        <v>69</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="11"/>
+        <v>2088</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="10"/>
+        <v>79</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="13"/>
+        <v>80</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="23">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="11"/>
+        <v>2089</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="10"/>
+        <v>80</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="13"/>
+        <v>80</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="23">
+        <f t="shared" si="17"/>
+        <v>71</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="11"/>
+        <v>2090</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="10"/>
+        <v>81</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="13"/>
+        <v>90</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="23">
+        <f t="shared" si="17"/>
+        <v>72</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="11"/>
+        <v>2091</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="13"/>
+        <v>90</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="23">
+        <f t="shared" si="17"/>
+        <v>73</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="11"/>
+        <v>2092</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="10"/>
+        <v>83</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="13"/>
+        <v>90</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="23">
+        <f t="shared" si="17"/>
+        <v>74</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="11"/>
+        <v>2093</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="10"/>
+        <v>84</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="13"/>
+        <v>90</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="23">
+        <f t="shared" si="17"/>
+        <v>75</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="11"/>
+        <v>2094</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="10"/>
+        <v>85</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="13"/>
+        <v>90</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="23">
-        <f t="shared" ref="A79:A92" si="16">+A78+1</f>
-        <v>67</v>
-      </c>
-      <c r="B79">
-        <f t="shared" si="10"/>
-        <v>2086</v>
-      </c>
-      <c r="C79">
-        <f t="shared" si="9"/>
-        <v>77</v>
-      </c>
-      <c r="D79">
-        <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="E79">
-        <f t="shared" si="12"/>
-        <v>80</v>
-      </c>
-      <c r="F79">
+      <c r="H87">
         <f t="shared" si="15"/>
         <v>6</v>
       </c>
-      <c r="G79">
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="23">
+        <f t="shared" si="17"/>
+        <v>76</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="11"/>
+        <v>2095</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="10"/>
+        <v>86</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="13"/>
+        <v>90</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="23">
+        <f t="shared" si="17"/>
+        <v>77</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="11"/>
+        <v>2096</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="10"/>
+        <v>87</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="13"/>
+        <v>90</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="16"/>
+        <v>7</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="23">
+        <f t="shared" si="17"/>
+        <v>78</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="11"/>
+        <v>2097</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="10"/>
+        <v>88</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="13"/>
+        <v>90</v>
+      </c>
+      <c r="F90">
         <f t="shared" si="14"/>
         <v>7</v>
       </c>
-      <c r="H79">
+      <c r="G90">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" s="23">
+        <f t="shared" si="17"/>
+        <v>79</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="11"/>
+        <v>2098</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="10"/>
+        <v>89</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="E91">
         <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="23">
-        <f t="shared" si="16"/>
-        <v>68</v>
-      </c>
-      <c r="B80">
-        <f t="shared" si="10"/>
-        <v>2087</v>
-      </c>
-      <c r="C80">
-        <f t="shared" si="9"/>
-        <v>78</v>
-      </c>
-      <c r="D80">
-        <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="E80">
-        <f t="shared" si="12"/>
-        <v>80</v>
-      </c>
-      <c r="F80">
-        <f t="shared" si="15"/>
-        <v>7</v>
-      </c>
-      <c r="G80">
+        <v>90</v>
+      </c>
+      <c r="F91">
         <f t="shared" si="14"/>
         <v>8</v>
       </c>
-      <c r="H80">
+      <c r="G91">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" s="23">
+        <f t="shared" si="17"/>
+        <v>80</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="11"/>
+        <v>2099</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="10"/>
+        <v>90</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="E92">
         <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="23">
-        <f t="shared" si="16"/>
-        <v>69</v>
-      </c>
-      <c r="B81">
-        <f t="shared" si="10"/>
-        <v>2088</v>
-      </c>
-      <c r="C81">
-        <f t="shared" si="9"/>
-        <v>79</v>
-      </c>
-      <c r="D81">
-        <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="E81">
-        <f t="shared" si="12"/>
-        <v>80</v>
-      </c>
-      <c r="F81">
-        <f t="shared" si="15"/>
-        <v>8</v>
-      </c>
-      <c r="G81">
+        <v>90</v>
+      </c>
+      <c r="F92">
         <f t="shared" si="14"/>
         <v>9</v>
       </c>
-      <c r="H81">
-        <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="23">
+      <c r="G92">
         <f t="shared" si="16"/>
-        <v>70</v>
-      </c>
-      <c r="B82">
-        <f t="shared" si="10"/>
-        <v>2089</v>
-      </c>
-      <c r="C82">
-        <f t="shared" si="9"/>
-        <v>80</v>
-      </c>
-      <c r="D82">
-        <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="E82">
-        <f t="shared" si="12"/>
-        <v>80</v>
-      </c>
-      <c r="F82">
+        <v>10</v>
+      </c>
+      <c r="H92">
         <f t="shared" si="15"/>
-        <v>9</v>
-      </c>
-      <c r="G82">
-        <f t="shared" si="14"/>
-        <v>10</v>
-      </c>
-      <c r="H82">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="23">
-        <f t="shared" si="16"/>
-        <v>71</v>
-      </c>
-      <c r="B83">
-        <f t="shared" si="10"/>
-        <v>2090</v>
-      </c>
-      <c r="C83">
-        <f t="shared" si="9"/>
-        <v>81</v>
-      </c>
-      <c r="D83">
-        <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="E83">
-        <f t="shared" si="12"/>
-        <v>90</v>
-      </c>
-      <c r="F83">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="G83">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="H83">
-        <f t="shared" si="13"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="23">
-        <f t="shared" si="16"/>
-        <v>72</v>
-      </c>
-      <c r="B84">
-        <f t="shared" si="10"/>
-        <v>2091</v>
-      </c>
-      <c r="C84">
-        <f t="shared" si="9"/>
-        <v>82</v>
-      </c>
-      <c r="D84">
-        <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="E84">
-        <f t="shared" si="12"/>
-        <v>90</v>
-      </c>
-      <c r="F84">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="G84">
-        <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="H84">
-        <f t="shared" si="13"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="23">
-        <f t="shared" si="16"/>
-        <v>73</v>
-      </c>
-      <c r="B85">
-        <f t="shared" si="10"/>
-        <v>2092</v>
-      </c>
-      <c r="C85">
-        <f t="shared" si="9"/>
-        <v>83</v>
-      </c>
-      <c r="D85">
-        <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="E85">
-        <f t="shared" si="12"/>
-        <v>90</v>
-      </c>
-      <c r="F85">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="G85">
-        <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="H85">
-        <f t="shared" si="13"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="23">
-        <f t="shared" si="16"/>
-        <v>74</v>
-      </c>
-      <c r="B86">
-        <f t="shared" si="10"/>
-        <v>2093</v>
-      </c>
-      <c r="C86">
-        <f t="shared" si="9"/>
-        <v>84</v>
-      </c>
-      <c r="D86">
-        <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="E86">
-        <f t="shared" si="12"/>
-        <v>90</v>
-      </c>
-      <c r="F86">
-        <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="G86">
-        <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="H86">
-        <f t="shared" si="13"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="23">
-        <f t="shared" si="16"/>
-        <v>75</v>
-      </c>
-      <c r="B87">
-        <f t="shared" si="10"/>
-        <v>2094</v>
-      </c>
-      <c r="C87">
-        <f t="shared" si="9"/>
-        <v>85</v>
-      </c>
-      <c r="D87">
-        <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="E87">
-        <f t="shared" si="12"/>
-        <v>90</v>
-      </c>
-      <c r="F87">
-        <f t="shared" si="15"/>
-        <v>4</v>
-      </c>
-      <c r="G87">
-        <f t="shared" si="14"/>
-        <v>5</v>
-      </c>
-      <c r="H87">
-        <f t="shared" si="13"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="23">
-        <f t="shared" si="16"/>
-        <v>76</v>
-      </c>
-      <c r="B88">
-        <f t="shared" si="10"/>
-        <v>2095</v>
-      </c>
-      <c r="C88">
-        <f t="shared" si="9"/>
-        <v>86</v>
-      </c>
-      <c r="D88">
-        <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="E88">
-        <f t="shared" si="12"/>
-        <v>90</v>
-      </c>
-      <c r="F88">
-        <f t="shared" si="15"/>
-        <v>5</v>
-      </c>
-      <c r="G88">
-        <f t="shared" si="14"/>
-        <v>6</v>
-      </c>
-      <c r="H88">
-        <f t="shared" si="13"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="23">
-        <f t="shared" si="16"/>
-        <v>77</v>
-      </c>
-      <c r="B89">
-        <f t="shared" si="10"/>
-        <v>2096</v>
-      </c>
-      <c r="C89">
-        <f t="shared" si="9"/>
-        <v>87</v>
-      </c>
-      <c r="D89">
-        <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="E89">
-        <f t="shared" si="12"/>
-        <v>90</v>
-      </c>
-      <c r="F89">
-        <f t="shared" si="15"/>
-        <v>6</v>
-      </c>
-      <c r="G89">
-        <f t="shared" si="14"/>
-        <v>7</v>
-      </c>
-      <c r="H89">
-        <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="23">
-        <f t="shared" si="16"/>
-        <v>78</v>
-      </c>
-      <c r="B90">
-        <f t="shared" si="10"/>
-        <v>2097</v>
-      </c>
-      <c r="C90">
-        <f t="shared" si="9"/>
-        <v>88</v>
-      </c>
-      <c r="D90">
-        <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="E90">
-        <f t="shared" si="12"/>
-        <v>90</v>
-      </c>
-      <c r="F90">
-        <f t="shared" si="15"/>
-        <v>7</v>
-      </c>
-      <c r="G90">
-        <f t="shared" si="14"/>
-        <v>8</v>
-      </c>
-      <c r="H90">
-        <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="23">
-        <f t="shared" si="16"/>
-        <v>79</v>
-      </c>
-      <c r="B91">
-        <f t="shared" si="10"/>
-        <v>2098</v>
-      </c>
-      <c r="C91">
-        <f t="shared" si="9"/>
-        <v>89</v>
-      </c>
-      <c r="D91">
-        <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="E91">
-        <f t="shared" si="12"/>
-        <v>90</v>
-      </c>
-      <c r="F91">
-        <f t="shared" si="15"/>
-        <v>8</v>
-      </c>
-      <c r="G91">
-        <f t="shared" si="14"/>
-        <v>9</v>
-      </c>
-      <c r="H91">
-        <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="23">
-        <f t="shared" si="16"/>
-        <v>80</v>
-      </c>
-      <c r="B92">
-        <f t="shared" si="10"/>
-        <v>2099</v>
-      </c>
-      <c r="C92">
-        <f t="shared" si="9"/>
-        <v>90</v>
-      </c>
-      <c r="D92">
-        <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="E92">
-        <f t="shared" si="12"/>
-        <v>90</v>
-      </c>
-      <c r="F92">
-        <f t="shared" si="15"/>
-        <v>9</v>
-      </c>
-      <c r="G92">
-        <f t="shared" si="14"/>
-        <v>10</v>
-      </c>
-      <c r="H92">
-        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>

--- a/scenarios.xlsx
+++ b/scenarios.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\MEDMOD\SpatialModelsR\MEDFIRE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C3B3AD-9395-432A-8ABB-570A8E554326}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8A74BD-7249-4337-8F2B-5DA2348ABF91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31440" yWindow="1020" windowWidth="15120" windowHeight="10650" firstSheet="1" activeTab="2" xr2:uid="{9687B63A-F89B-47E3-AB36-04820FAA1C94}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{9687B63A-F89B-47E3-AB36-04820FAA1C94}"/>
   </bookViews>
   <sheets>
     <sheet name="Obj4" sheetId="1" r:id="rId1"/>
     <sheet name="Obj1" sheetId="3" r:id="rId2"/>
-    <sheet name="times" sheetId="4" r:id="rId3"/>
+    <sheet name="run.servers" sheetId="6" r:id="rId3"/>
+    <sheet name="run.servers_tiff" sheetId="7" r:id="rId4"/>
+    <sheet name="times" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="97">
   <si>
     <t>scn.id</t>
   </si>
@@ -249,13 +251,91 @@
   </si>
   <si>
     <t xml:space="preserve"> t-(decade-10)-1</t>
+  </si>
+  <si>
+    <t>run1</t>
+  </si>
+  <si>
+    <t>run2</t>
+  </si>
+  <si>
+    <t>run3</t>
+  </si>
+  <si>
+    <t>run4</t>
+  </si>
+  <si>
+    <t>run5</t>
+  </si>
+  <si>
+    <t>run6</t>
+  </si>
+  <si>
+    <t>run7</t>
+  </si>
+  <si>
+    <t>run8</t>
+  </si>
+  <si>
+    <t>run9</t>
+  </si>
+  <si>
+    <t>run10</t>
+  </si>
+  <si>
+    <t>run11</t>
+  </si>
+  <si>
+    <t>run12</t>
+  </si>
+  <si>
+    <t>run13</t>
+  </si>
+  <si>
+    <t>run14</t>
+  </si>
+  <si>
+    <t>run15</t>
+  </si>
+  <si>
+    <t>run16</t>
+  </si>
+  <si>
+    <t>run17</t>
+  </si>
+  <si>
+    <t>run18</t>
+  </si>
+  <si>
+    <t>run19</t>
+  </si>
+  <si>
+    <t>run20</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>Falten</t>
+  </si>
+  <si>
+    <t>Executant</t>
+  </si>
+  <si>
+    <t>Executats</t>
+  </si>
+  <si>
+    <t>EX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,8 +387,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,6 +453,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -364,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -415,8 +541,24 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="8" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -734,7 +876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E19859F-333D-4C16-89F4-8572D04BF0E4}">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -2120,8 +2262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC90E6F-89AC-4A3D-828F-2B7D50492705}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2182,7 +2324,7 @@
         <v>42</v>
       </c>
       <c r="C2" s="18">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>29</v>
@@ -2216,7 +2358,7 @@
       </c>
       <c r="C3" s="18">
         <f>+C2</f>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>29</v>
@@ -2250,7 +2392,7 @@
       </c>
       <c r="C4" s="26">
         <f t="shared" ref="C4:C25" si="0">+C3</f>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>29</v>
@@ -2284,7 +2426,7 @@
       </c>
       <c r="C5" s="18">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>29</v>
@@ -2318,7 +2460,7 @@
       </c>
       <c r="C6" s="19">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>29</v>
@@ -2352,7 +2494,7 @@
       </c>
       <c r="C7" s="26">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>29</v>
@@ -2386,7 +2528,7 @@
       </c>
       <c r="C8" s="18">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>29</v>
@@ -2420,7 +2562,7 @@
       </c>
       <c r="C9" s="19">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>29</v>
@@ -2454,7 +2596,7 @@
       </c>
       <c r="C10" s="26">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>29</v>
@@ -2488,7 +2630,7 @@
       </c>
       <c r="C11" s="26">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D11" s="26" t="s">
         <v>29</v>
@@ -2522,7 +2664,7 @@
       </c>
       <c r="C12" s="26">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>29</v>
@@ -2556,7 +2698,7 @@
       </c>
       <c r="C13" s="26">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D13" s="26" t="s">
         <v>29</v>
@@ -2590,7 +2732,7 @@
       </c>
       <c r="C14" s="18">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>29</v>
@@ -2624,7 +2766,7 @@
       </c>
       <c r="C15" s="18">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>29</v>
@@ -2658,7 +2800,7 @@
       </c>
       <c r="C16" s="26">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>29</v>
@@ -2692,7 +2834,7 @@
       </c>
       <c r="C17" s="18">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>29</v>
@@ -2726,7 +2868,7 @@
       </c>
       <c r="C18" s="19">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>29</v>
@@ -2760,7 +2902,7 @@
       </c>
       <c r="C19" s="26">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D19" s="26" t="s">
         <v>29</v>
@@ -2794,7 +2936,7 @@
       </c>
       <c r="C20" s="18">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>29</v>
@@ -2828,7 +2970,7 @@
       </c>
       <c r="C21" s="19">
         <f>+C20</f>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D21" s="19" t="s">
         <v>29</v>
@@ -2862,7 +3004,7 @@
       </c>
       <c r="C22" s="26">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D22" s="26" t="s">
         <v>29</v>
@@ -2896,7 +3038,7 @@
       </c>
       <c r="C23" s="26">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D23" s="26" t="s">
         <v>29</v>
@@ -2930,7 +3072,7 @@
       </c>
       <c r="C24" s="26">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D24" s="26" t="s">
         <v>29</v>
@@ -2964,7 +3106,7 @@
       </c>
       <c r="C25" s="26">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D25" s="26" t="s">
         <v>29</v>
@@ -3049,10 +3191,2012 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148D1D3F-7155-4761-A0F7-51B4CD705A93}">
+  <dimension ref="A1:Z29"/>
+  <sheetViews>
+    <sheetView topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="Y24" sqref="Y24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.33203125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="22" width="6.6640625" customWidth="1"/>
+    <col min="23" max="25" width="9.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="33">
+        <v>44279</v>
+      </c>
+      <c r="B1" s="33"/>
+    </row>
+    <row r="3" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4" s="18">
+        <v>1</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="M4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="N4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="O4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="P4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="R4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="S4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="T4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="U4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="V4" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="W4">
+        <v>20</v>
+      </c>
+      <c r="X4">
+        <f>20-W4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5" s="18">
+        <f>+A4+1</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="K5" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="L5" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="N5" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="O5" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="P5" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q5" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="R5" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="S5" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="T5" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="U5" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="V5" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="W5">
+        <v>20</v>
+      </c>
+      <c r="X5">
+        <f t="shared" ref="X5:X23" si="0">20-W5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A6" s="26">
+        <f>+A5+1</f>
+        <v>3</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A7" s="18">
+        <f>+A6+1</f>
+        <v>4</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="N7" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="O7" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="P7" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q7" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="R7" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="S7" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="T7" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="U7" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="V7" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="W7">
+        <v>20</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A8" s="19">
+        <f t="shared" ref="A8:A27" si="1">+A7+1</f>
+        <v>5</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="N8" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="P8" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q8" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="R8" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="S8" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="T8" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="U8" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="V8" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="W8">
+        <v>20</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A9" s="26">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A10" s="18">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="K10" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="L10" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="M10" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="N10" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="O10" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="P10" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q10" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="R10" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="S10" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="T10" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="U10" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="V10" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="W10">
+        <v>20</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A11" s="19">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="J11" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="K11" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="L11" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="M11" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="N11" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="O11" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="P11" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q11" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="R11" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="S11" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="T11" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="U11" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="V11" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="W11">
+        <v>20</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A12" s="26">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A13" s="26">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A14" s="26">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A15" s="26">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A16" s="18">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="J16" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="M16" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="N16" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="O16" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q16" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="R16" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="S16" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="T16" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="U16" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="V16" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="W16">
+        <v>20</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A17" s="18">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="J17" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="L17" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="M17" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="N17" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="O17" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="P17" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q17" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="R17" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="S17" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="T17" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="U17" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="V17" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="W17">
+        <v>20</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A18" s="26">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A19" s="18">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="I19" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="J19" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="K19" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="L19" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="M19" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="N19" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="O19" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="P19" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q19" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="R19" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="S19" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="T19" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="U19" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="V19" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="W19">
+        <v>20</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A20" s="19">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="I20" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="J20" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="K20" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="L20" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="M20" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="N20" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="O20" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="P20" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q20" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="R20" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="S20" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="T20" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="U20" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="V20" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="W20">
+        <v>20</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A21" s="26">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A22" s="18">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="H22" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="I22" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="J22" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="K22" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="L22" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="M22" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="N22" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="O22" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="P22" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q22" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="R22" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="S22" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="T22" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="U22" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="V22" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="W22">
+        <v>20</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A23" s="19">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="I23" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="J23" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="K23" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="L23" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="M23" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="N23" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="O23" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="P23" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q23" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="R23" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="S23" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="T23" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="U23" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="V23" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="W23">
+        <v>16</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Y23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A24" s="26">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A25" s="26">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A26" s="26">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A27" s="26">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B28" s="18"/>
+      <c r="X28" s="1">
+        <f>SUM(X4:X27)</f>
+        <v>4</v>
+      </c>
+      <c r="Y28" s="1">
+        <f>SUM(Y4:Y25)</f>
+        <v>4</v>
+      </c>
+      <c r="Z28" s="1"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="X29" s="32">
+        <f>+X28-Y28</f>
+        <v>0</v>
+      </c>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11CF4222-92CA-46B8-9A63-1827AB78EAB0}">
+  <dimension ref="A1:Z29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.33203125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="6.6640625" customWidth="1"/>
+    <col min="8" max="22" width="6.6640625" hidden="1" customWidth="1"/>
+    <col min="23" max="25" width="9.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="33">
+        <v>44302</v>
+      </c>
+      <c r="B1" s="33"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2" s="36"/>
+    </row>
+    <row r="3" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4" s="18">
+        <v>1</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="X4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5" s="18">
+        <f>+A4+1</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="X5">
+        <v>5</v>
+      </c>
+      <c r="Y5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A6" s="26">
+        <f>+A5+1</f>
+        <v>3</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A7" s="18">
+        <f>+A6+1</f>
+        <v>4</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="X7">
+        <v>5</v>
+      </c>
+      <c r="Y7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A8" s="19">
+        <f t="shared" ref="A8:A27" si="0">+A7+1</f>
+        <v>5</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="X8">
+        <v>5</v>
+      </c>
+      <c r="Y8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A9" s="26">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A10" s="18">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="X10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A11" s="19">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="X11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A12" s="26">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A13" s="26">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A14" s="26">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A15" s="26">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A16" s="18">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="X16">
+        <v>5</v>
+      </c>
+      <c r="Y16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A17" s="18">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="X17">
+        <v>5</v>
+      </c>
+      <c r="Y17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A18" s="26">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A19" s="18">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="7"/>
+      <c r="X19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A20" s="19">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="X20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A21" s="26">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A22" s="18">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+      <c r="X22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A23" s="19">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="7"/>
+      <c r="X23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A24" s="26">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A25" s="26">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A26" s="26">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A27" s="26">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B28" s="18"/>
+      <c r="X28" s="1">
+        <f>SUM(X4:X27)</f>
+        <v>60</v>
+      </c>
+      <c r="Y28" s="1">
+        <f>SUM(Y4:Y25)</f>
+        <v>25</v>
+      </c>
+      <c r="Z28" s="1"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="X29" s="32">
+        <f>+X28-Y28</f>
+        <v>35</v>
+      </c>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87314467-3CFF-4C45-AF24-4F998335DCF5}">
   <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3:F92"/>
     </sheetView>
   </sheetViews>
@@ -3063,10 +5207,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="34"/>
       <c r="F1" s="24" t="s">
         <v>70</v>
       </c>

--- a/scenarios.xlsx
+++ b/scenarios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\MEDMOD\SpatialModelsR\MEDFIRE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ctfccat-my.sharepoint.com/personal/nuria_aquilue_ctfc_cat/Documents/MEDMOD/SpatialModelsR/MEDFIRE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914CBCE4-F8E3-4961-BC5F-BC5D5472C2DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{914CBCE4-F8E3-4961-BC5F-BC5D5472C2DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D410E40B-9BAD-44A5-9A29-8F58A00548C9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{9687B63A-F89B-47E3-AB36-04820FAA1C94}"/>
+    <workbookView minimized="1" xWindow="6720" yWindow="2685" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{9687B63A-F89B-47E3-AB36-04820FAA1C94}"/>
   </bookViews>
   <sheets>
     <sheet name="Obj1" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="95">
   <si>
     <t>scn.id</t>
   </si>
@@ -404,7 +404,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -444,6 +444,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,9 +495,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -509,6 +512,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -829,22 +833,22 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="4" customWidth="1"/>
-    <col min="9" max="9" width="26.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.5546875" style="4"/>
+    <col min="9" max="9" width="26.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.5703125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -879,7 +883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -887,7 +891,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="4">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>8</v>
@@ -911,7 +915,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <f>+A2+1</f>
         <v>2</v>
@@ -921,7 +925,7 @@
       </c>
       <c r="C3" s="4">
         <f>+C2</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>8</v>
@@ -945,7 +949,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <f>+A3+1</f>
         <v>3</v>
@@ -955,7 +959,7 @@
       </c>
       <c r="C4" s="12">
         <f t="shared" ref="C4:C25" si="0">+C3</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>8</v>
@@ -979,7 +983,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <f>+A4+1</f>
         <v>4</v>
@@ -989,7 +993,7 @@
       </c>
       <c r="C5" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>8</v>
@@ -1013,7 +1017,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f t="shared" ref="A6:A25" si="1">+A5+1</f>
         <v>5</v>
@@ -1023,7 +1027,7 @@
       </c>
       <c r="C6" s="5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>8</v>
@@ -1047,7 +1051,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -1057,7 +1061,7 @@
       </c>
       <c r="C7" s="12">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>8</v>
@@ -1081,7 +1085,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -1091,7 +1095,7 @@
       </c>
       <c r="C8" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>8</v>
@@ -1115,7 +1119,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -1125,7 +1129,7 @@
       </c>
       <c r="C9" s="5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>8</v>
@@ -1149,7 +1153,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -1159,7 +1163,7 @@
       </c>
       <c r="C10" s="12">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>8</v>
@@ -1183,7 +1187,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -1193,7 +1197,7 @@
       </c>
       <c r="C11" s="12">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>8</v>
@@ -1217,7 +1221,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -1227,7 +1231,7 @@
       </c>
       <c r="C12" s="12">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>8</v>
@@ -1251,7 +1255,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -1261,7 +1265,7 @@
       </c>
       <c r="C13" s="12">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>8</v>
@@ -1285,7 +1289,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -1295,7 +1299,7 @@
       </c>
       <c r="C14" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>8</v>
@@ -1319,7 +1323,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -1329,7 +1333,7 @@
       </c>
       <c r="C15" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>8</v>
@@ -1353,7 +1357,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -1363,7 +1367,7 @@
       </c>
       <c r="C16" s="12">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>8</v>
@@ -1387,7 +1391,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -1397,7 +1401,7 @@
       </c>
       <c r="C17" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>8</v>
@@ -1421,7 +1425,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -1431,7 +1435,7 @@
       </c>
       <c r="C18" s="5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>8</v>
@@ -1455,7 +1459,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -1465,7 +1469,7 @@
       </c>
       <c r="C19" s="12">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>8</v>
@@ -1489,7 +1493,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -1499,7 +1503,7 @@
       </c>
       <c r="C20" s="4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>8</v>
@@ -1523,7 +1527,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -1533,7 +1537,7 @@
       </c>
       <c r="C21" s="5">
         <f>+C20</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>8</v>
@@ -1557,7 +1561,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -1567,7 +1571,7 @@
       </c>
       <c r="C22" s="12">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>8</v>
@@ -1591,7 +1595,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -1601,7 +1605,7 @@
       </c>
       <c r="C23" s="12">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>8</v>
@@ -1625,7 +1629,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -1635,7 +1639,7 @@
       </c>
       <c r="C24" s="12">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>8</v>
@@ -1659,7 +1663,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -1669,7 +1673,7 @@
       </c>
       <c r="C25" s="12">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>8</v>
@@ -1693,58 +1697,58 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E27" s="7"/>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E29" s="7"/>
       <c r="F29" s="5"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E31" s="7"/>
     </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E33" s="7"/>
     </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E35" s="7"/>
     </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E37" s="7"/>
       <c r="F37" s="6"/>
     </row>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F38" s="6"/>
     </row>
-    <row r="39" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F39" s="6"/>
     </row>
-    <row r="40" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F40" s="6"/>
     </row>
-    <row r="41" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F41" s="6"/>
     </row>
-    <row r="42" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F42" s="6"/>
     </row>
-    <row r="43" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F43" s="6"/>
     </row>
-    <row r="44" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F44" s="6"/>
     </row>
-    <row r="45" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F45" s="6"/>
     </row>
-    <row r="46" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F46" s="6"/>
     </row>
   </sheetData>
@@ -1757,25 +1761,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148D1D3F-7155-4761-A0F7-51B4CD705A93}">
   <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="Y24" sqref="Y24"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="22" width="6.6640625" customWidth="1"/>
-    <col min="23" max="25" width="9.77734375" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="22" width="6.7109375" customWidth="1"/>
+    <col min="23" max="25" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="22">
+    <row r="1" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="21">
         <v>44279</v>
       </c>
-      <c r="B1" s="22"/>
-    </row>
-    <row r="3" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="21"/>
+    </row>
+    <row r="3" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1852,7 +1856,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1927,7 +1931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <f>+A4+1</f>
         <v>2</v>
@@ -2003,7 +2007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <f>+A5+1</f>
         <v>3</v>
@@ -2011,8 +2015,75 @@
       <c r="B6" s="12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="C6" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="N6" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="O6" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="R6" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="S6" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="T6" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="U6" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="V6" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="Y6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <f>+A6+1</f>
         <v>4</v>
@@ -2088,7 +2159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f t="shared" ref="A8:A27" si="1">+A7+1</f>
         <v>5</v>
@@ -2164,7 +2235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -2172,8 +2243,75 @@
       <c r="B9" s="12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="C9" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="M9" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="N9" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="O9" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="P9" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q9" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="R9" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="S9" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="T9" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="U9" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="V9" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="Y9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -2190,55 +2328,55 @@
       <c r="E10" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="J10" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="K10" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="L10" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="M10" s="17" t="s">
+      <c r="F10" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="M10" s="16" t="s">
         <v>70</v>
       </c>
       <c r="N10" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="O10" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="P10" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q10" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="R10" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="S10" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="T10" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="U10" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="V10" s="17" t="s">
+      <c r="O10" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q10" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="R10" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="S10" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="T10" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="U10" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="V10" s="16" t="s">
         <v>70</v>
       </c>
       <c r="W10">
@@ -2249,7 +2387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -2325,7 +2463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -2333,8 +2471,75 @@
       <c r="B12" s="12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="C12" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="L12" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="M12" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="N12" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="O12" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="P12" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q12" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="R12" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="S12" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="T12" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="U12" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="V12" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="Y12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -2342,8 +2547,75 @@
       <c r="B13" s="12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="C13" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="M13" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="N13" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="O13" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="P13" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q13" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="R13" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="S13" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="T13" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="U13" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="V13" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="Y13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -2351,8 +2623,12 @@
       <c r="B14" s="12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X14">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -2360,8 +2636,12 @@
       <c r="B15" s="12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="X15">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -2437,7 +2717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -2513,7 +2793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -2521,8 +2801,12 @@
       <c r="B18" s="12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="X18">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -2539,52 +2823,52 @@
       <c r="E19" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="F19" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="J19" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="K19" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="L19" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="M19" s="17" t="s">
+      <c r="F19" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="K19" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="L19" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="M19" s="16" t="s">
         <v>70</v>
       </c>
       <c r="N19" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="O19" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="P19" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q19" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="R19" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="S19" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="T19" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="U19" s="17" t="s">
+      <c r="O19" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="P19" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q19" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="R19" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="S19" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="T19" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="U19" s="16" t="s">
         <v>70</v>
       </c>
       <c r="V19" s="14" t="s">
@@ -2598,7 +2882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -2674,7 +2958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -2682,8 +2966,12 @@
       <c r="B21" s="12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="X21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -2700,55 +2988,55 @@
       <c r="E22" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="F22" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="H22" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="I22" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="J22" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="K22" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="L22" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="M22" s="17" t="s">
+      <c r="F22" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="K22" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="L22" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="M22" s="16" t="s">
         <v>70</v>
       </c>
       <c r="N22" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="O22" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="P22" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q22" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="R22" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="S22" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="T22" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="U22" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="V22" s="17" t="s">
+      <c r="O22" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="P22" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q22" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="R22" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="S22" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="T22" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="U22" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="V22" s="16" t="s">
         <v>70</v>
       </c>
       <c r="W22">
@@ -2758,11 +3046,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -2794,10 +3079,10 @@
       <c r="J23" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="K23" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="L23" s="17" t="s">
+      <c r="K23" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="L23" s="16" t="s">
         <v>70</v>
       </c>
       <c r="M23" s="14" t="s">
@@ -2806,42 +3091,39 @@
       <c r="N23" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="O23" s="17" t="s">
+      <c r="O23" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="P23" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q23" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="R23" s="17" t="s">
+      <c r="P23" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q23" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="R23" s="16" t="s">
         <v>70</v>
       </c>
       <c r="S23" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="T23" s="15" t="s">
+      <c r="T23" s="16" t="s">
         <v>71</v>
       </c>
       <c r="U23" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="V23" s="15" t="s">
+      <c r="V23" s="16" t="s">
         <v>71</v>
       </c>
       <c r="W23">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="X23">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="Y23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -2850,7 +3132,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -2859,7 +3141,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -2868,7 +3150,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -2877,22 +3159,22 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="X28" s="1">
         <f>SUM(X4:X27)</f>
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="Y28" s="1">
         <f>SUM(Y4:Y25)</f>
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="X29" s="18">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="X29" s="17">
         <f>+X28-Y28</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
@@ -2911,29 +3193,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11CF4222-92CA-46B8-9A63-1827AB78EAB0}">
   <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="6.6640625" customWidth="1"/>
-    <col min="8" max="22" width="6.6640625" hidden="1" customWidth="1"/>
-    <col min="23" max="25" width="9.77734375" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="6.7109375" customWidth="1"/>
+    <col min="8" max="22" width="6.7109375" hidden="1" customWidth="1"/>
+    <col min="23" max="25" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="22">
+    <row r="1" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="21">
         <v>44302</v>
       </c>
-      <c r="B1" s="22"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-    </row>
-    <row r="3" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="21"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="19"/>
+    </row>
+    <row r="3" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -3007,26 +3289,26 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>75</v>
       </c>
       <c r="H4" s="2"/>
@@ -3052,7 +3334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <f>+A4+1</f>
         <v>2</v>
@@ -3060,19 +3342,19 @@
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" s="19" t="s">
+      <c r="C5" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="18" t="s">
         <v>70</v>
       </c>
       <c r="H5" s="2"/>
@@ -3098,7 +3380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <f>+A5+1</f>
         <v>3</v>
@@ -3122,7 +3404,7 @@
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <f>+A6+1</f>
         <v>4</v>
@@ -3130,19 +3412,19 @@
       <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="19" t="s">
+      <c r="C7" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="18" t="s">
         <v>70</v>
       </c>
       <c r="H7" s="2"/>
@@ -3168,7 +3450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f t="shared" ref="A8:A27" si="0">+A7+1</f>
         <v>5</v>
@@ -3214,7 +3496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3238,7 +3520,7 @@
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3246,19 +3528,19 @@
       <c r="B10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="19" t="s">
+      <c r="C10" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="18" t="s">
         <v>70</v>
       </c>
       <c r="H10" s="4"/>
@@ -3284,7 +3566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3298,13 +3580,13 @@
       <c r="D11" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="18" t="s">
         <v>71</v>
       </c>
       <c r="H11" s="2"/>
@@ -3330,7 +3612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3354,7 +3636,7 @@
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3378,7 +3660,7 @@
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3402,7 +3684,7 @@
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3426,7 +3708,7 @@
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3434,19 +3716,19 @@
       <c r="B16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="18" t="s">
         <v>75</v>
       </c>
       <c r="H16" s="2"/>
@@ -3472,7 +3754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3518,7 +3800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3542,7 +3824,7 @@
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3559,7 +3841,7 @@
       <c r="E19" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="18" t="s">
         <v>75</v>
       </c>
       <c r="G19" s="15" t="s">
@@ -3588,7 +3870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3602,13 +3884,13 @@
       <c r="D20" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="18" t="s">
         <v>75</v>
       </c>
       <c r="H20" s="2"/>
@@ -3634,7 +3916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3658,7 +3940,7 @@
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3666,19 +3948,19 @@
       <c r="B22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="G22" s="19" t="s">
+      <c r="C22" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="18" t="s">
         <v>70</v>
       </c>
       <c r="H22" s="4"/>
@@ -3704,7 +3986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3712,19 +3994,19 @@
       <c r="B23" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="G23" s="19" t="s">
+      <c r="C23" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="18" t="s">
         <v>70</v>
       </c>
       <c r="H23" s="2"/>
@@ -3750,7 +4032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3774,7 +4056,7 @@
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3798,7 +4080,7 @@
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3822,7 +4104,7 @@
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3846,7 +4128,7 @@
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="X28" s="1">
         <f>SUM(X4:X27)</f>
@@ -3855,11 +4137,11 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="W29" s="21" t="s">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="W29" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="X29" s="18">
+      <c r="X29" s="17">
         <f>+X28-Y28</f>
         <v>0</v>
       </c>
@@ -3883,9 +4165,9 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>77</v>
       </c>
@@ -3896,7 +4178,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>78</v>
       </c>
@@ -3907,12 +4189,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>80</v>
       </c>
@@ -3923,7 +4205,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>81</v>
       </c>
@@ -3934,7 +4216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>82</v>
       </c>
@@ -3948,7 +4230,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>83</v>
       </c>
@@ -3959,7 +4241,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>84</v>
       </c>
@@ -3973,12 +4255,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>88</v>
       </c>
@@ -3992,12 +4274,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>90</v>
       </c>
@@ -4011,7 +4293,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>76</v>
       </c>
@@ -4036,22 +4318,22 @@
       <selection activeCell="F3" sqref="F3:F92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D1" s="23" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D1" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="23"/>
+      <c r="E1" s="22"/>
       <c r="F1" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>45</v>
       </c>
@@ -4074,7 +4356,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -4106,7 +4388,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>+A3+1</f>
         <v>2</v>
@@ -4140,7 +4422,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f t="shared" ref="A5:A12" si="7">+A4+1</f>
         <v>3</v>
@@ -4174,7 +4456,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f t="shared" si="7"/>
         <v>4</v>
@@ -4208,7 +4490,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f t="shared" si="7"/>
         <v>5</v>
@@ -4242,7 +4524,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f t="shared" si="7"/>
         <v>6</v>
@@ -4276,7 +4558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f t="shared" si="7"/>
         <v>7</v>
@@ -4310,7 +4592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f t="shared" si="7"/>
         <v>8</v>
@@ -4344,7 +4626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f t="shared" si="7"/>
         <v>9</v>
@@ -4378,7 +4660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f t="shared" si="7"/>
         <v>10</v>
@@ -4412,7 +4694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>1</v>
       </c>
@@ -4445,7 +4727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <f>+A13+1</f>
         <v>2</v>
@@ -4479,7 +4761,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <f t="shared" ref="A15:A78" si="9">+A14+1</f>
         <v>3</v>
@@ -4513,7 +4795,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <f t="shared" si="9"/>
         <v>4</v>
@@ -4547,7 +4829,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <f t="shared" si="9"/>
         <v>5</v>
@@ -4581,7 +4863,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <f t="shared" si="9"/>
         <v>6</v>
@@ -4615,7 +4897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <f t="shared" si="9"/>
         <v>7</v>
@@ -4649,7 +4931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <f t="shared" si="9"/>
         <v>8</v>
@@ -4683,7 +4965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <f t="shared" si="9"/>
         <v>9</v>
@@ -4717,7 +4999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <f t="shared" si="9"/>
         <v>10</v>
@@ -4751,7 +5033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <f t="shared" si="9"/>
         <v>11</v>
@@ -4785,7 +5067,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <f t="shared" si="9"/>
         <v>12</v>
@@ -4819,7 +5101,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <f t="shared" si="9"/>
         <v>13</v>
@@ -4853,7 +5135,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <f t="shared" si="9"/>
         <v>14</v>
@@ -4887,7 +5169,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <f t="shared" si="9"/>
         <v>15</v>
@@ -4921,7 +5203,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <f t="shared" si="9"/>
         <v>16</v>
@@ -4955,7 +5237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <f t="shared" si="9"/>
         <v>17</v>
@@ -4989,7 +5271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <f t="shared" si="9"/>
         <v>18</v>
@@ -5023,7 +5305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <f t="shared" si="9"/>
         <v>19</v>
@@ -5057,7 +5339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <f t="shared" si="9"/>
         <v>20</v>
@@ -5091,7 +5373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
         <f t="shared" si="9"/>
         <v>21</v>
@@ -5125,7 +5407,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
         <f t="shared" si="9"/>
         <v>22</v>
@@ -5159,7 +5441,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
         <f t="shared" si="9"/>
         <v>23</v>
@@ -5193,7 +5475,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
         <f t="shared" si="9"/>
         <v>24</v>
@@ -5227,7 +5509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
         <f t="shared" si="9"/>
         <v>25</v>
@@ -5261,7 +5543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
         <f t="shared" si="9"/>
         <v>26</v>
@@ -5295,7 +5577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
         <f t="shared" si="9"/>
         <v>27</v>
@@ -5329,7 +5611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
         <f t="shared" si="9"/>
         <v>28</v>
@@ -5363,7 +5645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
         <f t="shared" si="9"/>
         <v>29</v>
@@ -5397,7 +5679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
         <f t="shared" si="9"/>
         <v>30</v>
@@ -5431,7 +5713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
         <f t="shared" si="9"/>
         <v>31</v>
@@ -5465,7 +5747,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="9">
         <f t="shared" si="9"/>
         <v>32</v>
@@ -5499,7 +5781,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
         <f t="shared" si="9"/>
         <v>33</v>
@@ -5533,7 +5815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
         <f t="shared" si="9"/>
         <v>34</v>
@@ -5567,7 +5849,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
         <f t="shared" si="9"/>
         <v>35</v>
@@ -5601,7 +5883,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
         <f t="shared" si="9"/>
         <v>36</v>
@@ -5635,7 +5917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
         <f t="shared" si="9"/>
         <v>37</v>
@@ -5669,7 +5951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="9">
         <f t="shared" si="9"/>
         <v>38</v>
@@ -5703,7 +5985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="9">
         <f t="shared" si="9"/>
         <v>39</v>
@@ -5737,7 +6019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="9">
         <f t="shared" si="9"/>
         <v>40</v>
@@ -5771,7 +6053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="9">
         <f t="shared" si="9"/>
         <v>41</v>
@@ -5805,7 +6087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="9">
         <f t="shared" si="9"/>
         <v>42</v>
@@ -5839,7 +6121,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="9">
         <f t="shared" si="9"/>
         <v>43</v>
@@ -5873,7 +6155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="9">
         <f t="shared" si="9"/>
         <v>44</v>
@@ -5907,7 +6189,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="9">
         <f t="shared" si="9"/>
         <v>45</v>
@@ -5941,7 +6223,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="9">
         <f t="shared" si="9"/>
         <v>46</v>
@@ -5975,7 +6257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="9">
         <f t="shared" si="9"/>
         <v>47</v>
@@ -6009,7 +6291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="9">
         <f t="shared" si="9"/>
         <v>48</v>
@@ -6043,7 +6325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="9">
         <f t="shared" si="9"/>
         <v>49</v>
@@ -6077,7 +6359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="9">
         <f t="shared" si="9"/>
         <v>50</v>
@@ -6111,7 +6393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="9">
         <f t="shared" si="9"/>
         <v>51</v>
@@ -6145,7 +6427,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="9">
         <f t="shared" si="9"/>
         <v>52</v>
@@ -6179,7 +6461,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="9">
         <f t="shared" si="9"/>
         <v>53</v>
@@ -6213,7 +6495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="9">
         <f t="shared" si="9"/>
         <v>54</v>
@@ -6247,7 +6529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="9">
         <f t="shared" si="9"/>
         <v>55</v>
@@ -6281,7 +6563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="9">
         <f t="shared" si="9"/>
         <v>56</v>
@@ -6315,7 +6597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="9">
         <f t="shared" si="9"/>
         <v>57</v>
@@ -6349,7 +6631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="9">
         <f t="shared" si="9"/>
         <v>58</v>
@@ -6383,7 +6665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="9">
         <f t="shared" si="9"/>
         <v>59</v>
@@ -6417,7 +6699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="9">
         <f t="shared" si="9"/>
         <v>60</v>
@@ -6451,7 +6733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="9">
         <f t="shared" si="9"/>
         <v>61</v>
@@ -6485,7 +6767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="9">
         <f t="shared" si="9"/>
         <v>62</v>
@@ -6519,7 +6801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="9">
         <f t="shared" si="9"/>
         <v>63</v>
@@ -6553,7 +6835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="9">
         <f t="shared" si="9"/>
         <v>64</v>
@@ -6587,7 +6869,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="9">
         <f t="shared" si="9"/>
         <v>65</v>
@@ -6621,7 +6903,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="9">
         <f t="shared" si="9"/>
         <v>66</v>
@@ -6655,7 +6937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="9">
         <f t="shared" ref="A79:A92" si="17">+A78+1</f>
         <v>67</v>
@@ -6689,7 +6971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="9">
         <f t="shared" si="17"/>
         <v>68</v>
@@ -6723,7 +7005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="9">
         <f t="shared" si="17"/>
         <v>69</v>
@@ -6757,7 +7039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="9">
         <f t="shared" si="17"/>
         <v>70</v>
@@ -6791,7 +7073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="9">
         <f t="shared" si="17"/>
         <v>71</v>
@@ -6825,7 +7107,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="9">
         <f t="shared" si="17"/>
         <v>72</v>
@@ -6859,7 +7141,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="9">
         <f t="shared" si="17"/>
         <v>73</v>
@@ -6893,7 +7175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="9">
         <f t="shared" si="17"/>
         <v>74</v>
@@ -6927,7 +7209,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="9">
         <f t="shared" si="17"/>
         <v>75</v>
@@ -6961,7 +7243,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="9">
         <f t="shared" si="17"/>
         <v>76</v>
@@ -6995,7 +7277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="9">
         <f t="shared" si="17"/>
         <v>77</v>
@@ -7029,7 +7311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="9">
         <f t="shared" si="17"/>
         <v>78</v>
@@ -7063,7 +7345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="9">
         <f t="shared" si="17"/>
         <v>79</v>
@@ -7097,7 +7379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="9">
         <f t="shared" si="17"/>
         <v>80</v>

--- a/scenarios.xlsx
+++ b/scenarios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\MEDMOD\SpatialModelsR\MEDFIRE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ctfccat-my.sharepoint.com/personal/nuria_aquilue_ctfc_cat/Documents/MEDMOD/SpatialModelsR/MEDFIRE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50071CE5-7BCC-4D26-896C-F65C6660AB34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{B39E0F97-250B-4753-8D7F-290F33FE68DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{740413C8-06F4-4FC6-911B-028EDF00E8A4}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{9687B63A-F89B-47E3-AB36-04820FAA1C94}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="5" xr2:uid="{9687B63A-F89B-47E3-AB36-04820FAA1C94}"/>
   </bookViews>
   <sheets>
     <sheet name="GCM1" sheetId="12" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="109">
   <si>
     <t>scn.id</t>
   </si>
@@ -256,9 +256,6 @@
     <t>PC</t>
   </si>
   <si>
-    <t>SP</t>
-  </si>
-  <si>
     <t>Falten</t>
   </si>
   <si>
@@ -316,9 +313,6 @@
     <t>harpo05</t>
   </si>
   <si>
-    <t>connection closed</t>
-  </si>
-  <si>
     <t>groucho09</t>
   </si>
   <si>
@@ -342,12 +336,45 @@
   <si>
     <t>SMHI-RCA4_MPI-M-MPI-ESM-LR</t>
   </si>
+  <si>
+    <t>GCM1</t>
+  </si>
+  <si>
+    <t>GCM2</t>
+  </si>
+  <si>
+    <t>GCM3</t>
+  </si>
+  <si>
+    <t>GCM4</t>
+  </si>
+  <si>
+    <t>GCM5</t>
+  </si>
+  <si>
+    <t>EX</t>
+  </si>
+  <si>
+    <t>No hi ha R</t>
+  </si>
+  <si>
+    <t>nrun/set1</t>
+  </si>
+  <si>
+    <t>nrun/set2</t>
+  </si>
+  <si>
+    <t>nrun/set3</t>
+  </si>
+  <si>
+    <t>nrun/set4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,8 +432,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -437,8 +478,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -446,11 +505,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -466,15 +544,50 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -789,7 +902,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J25"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -871,7 +984,7 @@
         <v>38</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1772,7 +1885,7 @@
         <v>38</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -2673,7 +2786,7 @@
         <v>38</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -3574,7 +3687,7 @@
         <v>38</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -4393,7 +4506,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4861,7 +4974,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="2">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>8</v>
@@ -4895,7 +5008,7 @@
       </c>
       <c r="C15" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>8</v>
@@ -4929,7 +5042,7 @@
       </c>
       <c r="C16" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>8</v>
@@ -4963,7 +5076,7 @@
       </c>
       <c r="C17" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>8</v>
@@ -4997,7 +5110,7 @@
       </c>
       <c r="C18" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>8</v>
@@ -5031,7 +5144,7 @@
       </c>
       <c r="C19" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>8</v>
@@ -5065,7 +5178,7 @@
       </c>
       <c r="C20" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>8</v>
@@ -5099,7 +5212,7 @@
       </c>
       <c r="C21" s="2">
         <f>+C20</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>8</v>
@@ -5133,7 +5246,7 @@
       </c>
       <c r="C22" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>8</v>
@@ -5167,7 +5280,7 @@
       </c>
       <c r="C23" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>8</v>
@@ -5201,7 +5314,7 @@
       </c>
       <c r="C24" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>8</v>
@@ -5235,7 +5348,7 @@
       </c>
       <c r="C25" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>8</v>
@@ -5267,188 +5380,238 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148D1D3F-7155-4761-A0F7-51B4CD705A93}">
-  <dimension ref="A1:AA30"/>
+  <dimension ref="A1:AF30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="AB6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4:V4"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="20.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="22" width="6.6640625" style="8" customWidth="1"/>
-    <col min="23" max="24" width="9.6640625" style="8" customWidth="1"/>
-    <col min="25" max="25" width="4.109375" style="8" customWidth="1"/>
-    <col min="26" max="26" width="4.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="11.5546875" style="8"/>
+    <col min="3" max="22" width="6.6640625" style="8" hidden="1" customWidth="1"/>
+    <col min="23" max="24" width="9.6640625" style="8" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="4.109375" style="8" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="4.88671875" style="8" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="15.6640625" style="8" hidden="1" customWidth="1"/>
+    <col min="28" max="31" width="9.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="11.5546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="11">
-        <v>44390</v>
-      </c>
-      <c r="B1" s="11"/>
-    </row>
-    <row r="3" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="30">
+        <f ca="1">TODAY()</f>
+        <v>44442</v>
+      </c>
+      <c r="B1" s="30"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="C2" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="29"/>
+    </row>
+    <row r="3" spans="1:31" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="O3" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="Q3" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="R3" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="S3" s="10" t="s">
+      <c r="S3" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="T3" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="U3" s="10" t="s">
+      <c r="U3" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="V3" s="10" t="s">
+      <c r="V3" s="17" t="s">
         <v>69</v>
       </c>
       <c r="W3" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="X3" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z3" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AA3" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+      <c r="AB3" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC3" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD3" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE3" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="S4" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="T4" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="U4" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>71</v>
+      <c r="C4" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="R4" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="U4" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="V4" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="W4" s="8">
+        <v>20</v>
       </c>
       <c r="X4" s="8">
         <f>20-W4</f>
+        <v>0</v>
+      </c>
+      <c r="AB4" s="8">
         <v>20</v>
       </c>
-      <c r="AA4" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f>+A4+1</f>
         <v>2</v>
@@ -5456,75 +5619,78 @@
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="S5" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="T5" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="U5" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="V5" s="6" t="s">
-        <v>71</v>
+      <c r="C5" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="P5" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="R5" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="S5" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="T5" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="U5" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="V5" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="W5" s="8">
+        <v>20</v>
       </c>
       <c r="X5" s="8">
         <f t="shared" ref="X5:X27" si="0">20-W5</f>
+        <v>0</v>
+      </c>
+      <c r="AB5" s="8">
         <v>20</v>
       </c>
-      <c r="AA5" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <f>+A5+1</f>
         <v>3</v>
@@ -5532,75 +5698,78 @@
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="R6" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="S6" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="T6" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="U6" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="V6" s="6" t="s">
-        <v>71</v>
+      <c r="C6" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="O6" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q6" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="R6" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="S6" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="T6" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="U6" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="V6" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="W6" s="8">
+        <v>20</v>
       </c>
       <c r="X6" s="8">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="8">
         <v>20</v>
       </c>
-      <c r="AA6" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <f>+A6+1</f>
         <v>4</v>
@@ -5608,72 +5777,81 @@
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="N7" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="O7" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="P7" s="6" t="s">
+      <c r="P7" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Q7" s="6" t="s">
+      <c r="Q7" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R7" s="6" t="s">
+      <c r="R7" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="S7" s="6" t="s">
+      <c r="S7" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="T7" s="6" t="s">
+      <c r="T7" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="U7" s="6" t="s">
+      <c r="U7" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="V7" s="6" t="s">
+      <c r="V7" s="19" t="s">
         <v>70</v>
       </c>
+      <c r="W7" s="8">
+        <v>20</v>
+      </c>
       <c r="X7" s="8">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="8">
+        <v>9</v>
+      </c>
+      <c r="AC7" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <f t="shared" ref="A8:A27" si="1">+A7+1</f>
         <v>5</v>
@@ -5681,72 +5859,81 @@
       <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="M8" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="N8" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="O8" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="P8" s="6" t="s">
+      <c r="P8" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="Q8" s="6" t="s">
+      <c r="Q8" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="R8" s="6" t="s">
+      <c r="R8" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="S8" s="6" t="s">
+      <c r="S8" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="T8" s="6" t="s">
+      <c r="T8" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="U8" s="6" t="s">
+      <c r="U8" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="V8" s="6" t="s">
+      <c r="V8" s="18" t="s">
         <v>70</v>
       </c>
+      <c r="W8" s="8">
+        <v>20</v>
+      </c>
       <c r="X8" s="8">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="8">
+        <v>10</v>
+      </c>
+      <c r="AC8" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -5754,75 +5941,81 @@
       <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="R9" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="S9" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="T9" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="U9" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="V9" s="6" t="s">
-        <v>71</v>
+      <c r="C9" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="N9" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q9" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="R9" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="S9" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="T9" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="U9" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="V9" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="W9" s="8">
+        <v>20</v>
       </c>
       <c r="X9" s="8">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="AA9" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="8">
+        <v>14</v>
+      </c>
+      <c r="AC9" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -5830,72 +6023,84 @@
       <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="L10" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="M10" s="6" t="s">
+      <c r="M10" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="N10" s="6" t="s">
+      <c r="N10" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="O10" s="6" t="s">
+      <c r="O10" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="P10" s="6" t="s">
+      <c r="P10" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="Q10" s="6" t="s">
+      <c r="Q10" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="R10" s="6" t="s">
+      <c r="R10" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="S10" s="6" t="s">
+      <c r="S10" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="T10" s="6" t="s">
+      <c r="T10" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="U10" s="6" t="s">
+      <c r="U10" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="V10" s="6" t="s">
+      <c r="V10" s="18" t="s">
         <v>70</v>
       </c>
+      <c r="W10" s="8">
+        <v>20</v>
+      </c>
       <c r="X10" s="8">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="8">
+        <v>7</v>
+      </c>
+      <c r="AD10" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -5903,72 +6108,84 @@
       <c r="B11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="L11" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="M11" s="6" t="s">
+      <c r="M11" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="N11" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="O11" s="6" t="s">
+      <c r="O11" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="P11" s="6" t="s">
+      <c r="P11" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Q11" s="6" t="s">
+      <c r="Q11" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R11" s="6" t="s">
+      <c r="R11" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="S11" s="6" t="s">
+      <c r="S11" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="T11" s="6" t="s">
+      <c r="T11" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="U11" s="6" t="s">
+      <c r="U11" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="V11" s="6" t="s">
+      <c r="V11" s="19" t="s">
         <v>70</v>
       </c>
+      <c r="W11" s="8">
+        <v>20</v>
+      </c>
       <c r="X11" s="8">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="8">
+        <v>7</v>
+      </c>
+      <c r="AD11" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -5976,75 +6193,78 @@
       <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="P12" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q12" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="R12" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="S12" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="T12" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="U12" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="V12" s="6" t="s">
-        <v>71</v>
+      <c r="C12" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="N12" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q12" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="R12" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="S12" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="T12" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="U12" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="V12" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="W12" s="8">
+        <v>20</v>
       </c>
       <c r="X12" s="8">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="8">
         <v>20</v>
       </c>
-      <c r="AA12" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -6052,32 +6272,78 @@
       <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
+      <c r="C13" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="M13" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="N13" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="O13" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="P13" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q13" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="R13" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="S13" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="T13" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="U13" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="V13" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="W13" s="8">
+        <v>20</v>
+      </c>
       <c r="X13" s="8">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="8">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -6085,32 +6351,78 @@
       <c r="B14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
+      <c r="C14" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="N14" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q14" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="R14" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="S14" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="T14" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="U14" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="V14" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="W14" s="8">
+        <v>20</v>
+      </c>
       <c r="X14" s="8">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="8">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -6118,32 +6430,78 @@
       <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
+      <c r="C15" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="N15" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="O15" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q15" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="R15" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="S15" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="T15" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="U15" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="V15" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="W15" s="8">
+        <v>20</v>
+      </c>
       <c r="X15" s="8">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="8">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -6151,32 +6509,81 @@
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
+      <c r="C16" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="N16" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="O16" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="P16" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q16" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="R16" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="S16" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="T16" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="U16" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="V16" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="W16" s="8">
+        <v>20</v>
+      </c>
       <c r="X16" s="8">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="8">
+        <v>4</v>
+      </c>
+      <c r="AC16" s="8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -6184,32 +6591,81 @@
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
+      <c r="C17" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="L17" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="M17" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="O17" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="R17" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="S17" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="T17" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="U17" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="V17" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="W17" s="8">
+        <v>20</v>
+      </c>
       <c r="X17" s="8">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="8">
+        <v>4</v>
+      </c>
+      <c r="AC17" s="8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -6217,32 +6673,81 @@
       <c r="B18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
+      <c r="C18" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="N18" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="O18" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="P18" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q18" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="R18" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="S18" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="T18" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="U18" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="V18" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="W18" s="8">
+        <v>20</v>
+      </c>
       <c r="X18" s="8">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="8">
+        <v>4</v>
+      </c>
+      <c r="AC18" s="8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -6250,32 +6755,84 @@
       <c r="B19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="6"/>
+      <c r="C19" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="K19" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="L19" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="M19" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="N19" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="O19" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="P19" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q19" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="R19" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="S19" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="T19" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="U19" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="V19" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="W19" s="8">
+        <v>20</v>
+      </c>
       <c r="X19" s="8">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="8">
+        <v>4</v>
+      </c>
+      <c r="AC19" s="8">
+        <v>15</v>
+      </c>
+      <c r="AD19" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -6283,32 +6840,81 @@
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
+      <c r="C20" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="J20" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="K20" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="L20" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="M20" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="N20" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="O20" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="P20" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q20" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="R20" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="S20" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="T20" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="U20" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="V20" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="W20" s="8">
+        <v>20</v>
+      </c>
       <c r="X20" s="8">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="8">
+        <v>4</v>
+      </c>
+      <c r="AC20" s="8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -6316,32 +6922,81 @@
       <c r="B21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6"/>
+      <c r="C21" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="L21" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="M21" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="N21" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="O21" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="P21" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q21" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="R21" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="S21" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="T21" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="U21" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="V21" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="W21" s="8">
+        <v>20</v>
+      </c>
       <c r="X21" s="8">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="8">
+        <v>4</v>
+      </c>
+      <c r="AC21" s="8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -6349,32 +7004,81 @@
       <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
+      <c r="C22" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="I22" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="J22" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="K22" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="L22" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="M22" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="N22" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="O22" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="P22" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q22" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="R22" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="S22" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="T22" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="U22" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="V22" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="W22" s="8">
+        <v>20</v>
+      </c>
       <c r="X22" s="8">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="8">
+        <v>4</v>
+      </c>
+      <c r="AC22" s="8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -6382,32 +7086,91 @@
       <c r="B23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
+      <c r="C23" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="J23" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="K23" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="L23" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="M23" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="N23" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="O23" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="P23" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q23" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="R23" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="S23" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="T23" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="U23" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="V23" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="W23" s="8">
+        <v>20</v>
+      </c>
       <c r="X23" s="8">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6">
+        <v>4</v>
+      </c>
+      <c r="AC23" s="6">
+        <v>5</v>
+      </c>
+      <c r="AD23" s="8">
+        <v>2</v>
+      </c>
+      <c r="AE23" s="8">
+        <v>8</v>
+      </c>
+      <c r="AF23" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -6415,32 +7178,88 @@
       <c r="B24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
+      <c r="C24" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="I24" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="J24" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="K24" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="L24" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="M24" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="N24" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="O24" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="P24" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q24" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="R24" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="S24" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="T24" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="U24" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="V24" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="W24" s="8">
+        <v>20</v>
+      </c>
       <c r="X24" s="8">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="8">
+        <v>4</v>
+      </c>
+      <c r="AC24" s="8">
+        <v>4</v>
+      </c>
+      <c r="AD24" s="8">
+        <v>8</v>
+      </c>
+      <c r="AE24" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -6448,32 +7267,88 @@
       <c r="B25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
+      <c r="C25" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="J25" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="K25" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="L25" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="M25" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="N25" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="O25" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="P25" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q25" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="R25" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="S25" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="T25" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="U25" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="V25" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="W25" s="8">
+        <v>20</v>
+      </c>
       <c r="X25" s="8">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="8">
+        <v>4</v>
+      </c>
+      <c r="AC25" s="8">
+        <v>4</v>
+      </c>
+      <c r="AD25" s="8">
+        <v>8</v>
+      </c>
+      <c r="AE25" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -6481,32 +7356,84 @@
       <c r="B26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
+      <c r="C26" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="H26" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="I26" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="J26" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="K26" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="L26" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="M26" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="N26" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="O26" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="P26" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q26" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="R26" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="S26" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="T26" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="U26" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="V26" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="W26" s="8">
+        <v>20</v>
+      </c>
       <c r="X26" s="8">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="8">
+        <v>4</v>
+      </c>
+      <c r="AC26" s="8">
+        <v>8</v>
+      </c>
+      <c r="AD26" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -6514,54 +7441,118 @@
       <c r="B27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
+      <c r="C27" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="J27" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="K27" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="L27" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="M27" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="N27" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="O27" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="P27" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q27" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="R27" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="S27" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="T27" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="U27" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="V27" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="W27" s="8">
+        <v>20</v>
+      </c>
       <c r="X27" s="8">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="8">
+        <v>4</v>
+      </c>
+      <c r="AC27" s="8">
+        <v>15</v>
+      </c>
+      <c r="AD27" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
       <c r="Z28" s="10"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
       <c r="W29" s="10">
         <f>SUM(W4:W27)</f>
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="X29" s="10">
         <f>SUM(X4:X27)</f>
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="Y29" s="10"/>
       <c r="Z29" s="10"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="X30" s="10"/>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="W30" s="20">
+        <f>+W29/(W29+X29)</f>
+        <v>1</v>
+      </c>
+      <c r="X30" s="20">
+        <f>+X29/(X29+W29)</f>
+        <v>0</v>
+      </c>
       <c r="Y30" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="6">
+    <mergeCell ref="S2:V2"/>
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6574,25 +7565,25 @@
   <dimension ref="B2:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" s="7">
         <v>16</v>
@@ -6603,15 +7594,15 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5">
         <v>16</v>
@@ -6620,12 +7611,12 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6">
         <v>16</v>
@@ -6634,26 +7625,26 @@
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7">
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" s="7">
         <v>16</v>
@@ -6663,30 +7654,30 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="7">
         <v>16</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="7">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="7">
         <v>16</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="7">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" s="7">
         <v>16</v>
@@ -6697,15 +7688,15 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13" s="7">
         <v>16</v>
@@ -6716,7 +7707,7 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C14" s="7">
         <v>16</v>
@@ -6727,7 +7718,7 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -6736,12 +7727,12 @@
         <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C16" s="7">
         <v>8</v>
@@ -6771,10 +7762,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="12"/>
+      <c r="E1" s="32"/>
       <c r="F1" s="5" t="s">
         <v>49</v>
       </c>

--- a/scenarios.xlsx
+++ b/scenarios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ctfccat-my.sharepoint.com/personal/nuria_aquilue_ctfc_cat/Documents/MEDMOD/SpatialModelsR/MEDFIRE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{B39E0F97-250B-4753-8D7F-290F33FE68DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{740413C8-06F4-4FC6-911B-028EDF00E8A4}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{B39E0F97-250B-4753-8D7F-290F33FE68DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1721C58-4883-4EF6-8741-1335D0069FA1}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="5" xr2:uid="{9687B63A-F89B-47E3-AB36-04820FAA1C94}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8964" activeTab="4" xr2:uid="{9687B63A-F89B-47E3-AB36-04820FAA1C94}"/>
   </bookViews>
   <sheets>
     <sheet name="GCM1" sheetId="12" r:id="rId1"/>
@@ -4505,8 +4505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC90E6F-89AC-4A3D-828F-2B7D50492705}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4974,7 +4974,8 @@
         <v>5</v>
       </c>
       <c r="C14" s="2">
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>8</v>
@@ -5008,7 +5009,7 @@
       </c>
       <c r="C15" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>8</v>
@@ -5042,7 +5043,7 @@
       </c>
       <c r="C16" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>8</v>
@@ -5076,7 +5077,7 @@
       </c>
       <c r="C17" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>8</v>
@@ -5110,7 +5111,7 @@
       </c>
       <c r="C18" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>8</v>
@@ -5144,7 +5145,7 @@
       </c>
       <c r="C19" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>8</v>
@@ -5178,7 +5179,7 @@
       </c>
       <c r="C20" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>8</v>
@@ -5211,8 +5212,8 @@
         <v>32</v>
       </c>
       <c r="C21" s="2">
-        <f>+C20</f>
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>8</v>
@@ -5246,7 +5247,7 @@
       </c>
       <c r="C22" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>8</v>
@@ -5280,7 +5281,7 @@
       </c>
       <c r="C23" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>8</v>
@@ -5314,7 +5315,7 @@
       </c>
       <c r="C24" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>8</v>
@@ -5348,7 +5349,7 @@
       </c>
       <c r="C25" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>8</v>
@@ -5382,22 +5383,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148D1D3F-7155-4761-A0F7-51B4CD705A93}">
   <dimension ref="A1:AF30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AB6" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4:X27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.5546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="20.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="22" width="6.6640625" style="8" hidden="1" customWidth="1"/>
-    <col min="23" max="24" width="9.6640625" style="8" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="4.109375" style="8" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="4.88671875" style="8" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="15.6640625" style="8" hidden="1" customWidth="1"/>
+    <col min="3" max="22" width="6.6640625" style="8" customWidth="1"/>
+    <col min="23" max="24" width="9.6640625" style="8" customWidth="1"/>
+    <col min="25" max="25" width="4.109375" style="8" customWidth="1"/>
+    <col min="26" max="26" width="4.88671875" style="8" customWidth="1"/>
+    <col min="27" max="27" width="15.6640625" style="8" customWidth="1"/>
     <col min="28" max="31" width="9.44140625" style="8" bestFit="1" customWidth="1"/>
     <col min="32" max="16384" width="11.5546875" style="8"/>
   </cols>
@@ -5405,7 +5406,7 @@
     <row r="1" spans="1:31" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="30">
         <f ca="1">TODAY()</f>
-        <v>44442</v>
+        <v>44497</v>
       </c>
       <c r="B1" s="30"/>
     </row>

--- a/scenarios.xlsx
+++ b/scenarios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ctfccat-my.sharepoint.com/personal/nuria_aquilue_ctfc_cat/Documents/MEDMOD/SpatialModelsR/MEDFIRE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{B39E0F97-250B-4753-8D7F-290F33FE68DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1721C58-4883-4EF6-8741-1335D0069FA1}"/>
+  <xr:revisionPtr revIDLastSave="452" documentId="13_ncr:1_{B39E0F97-250B-4753-8D7F-290F33FE68DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3FC7755-D250-4C2B-BA0B-1F907D2CEC82}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8964" activeTab="4" xr2:uid="{9687B63A-F89B-47E3-AB36-04820FAA1C94}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{9687B63A-F89B-47E3-AB36-04820FAA1C94}"/>
   </bookViews>
   <sheets>
     <sheet name="GCM1" sheetId="12" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="127">
   <si>
     <t>scn.id</t>
   </si>
@@ -253,9 +253,6 @@
     <t>run20</t>
   </si>
   <si>
-    <t>PC</t>
-  </si>
-  <si>
     <t>Falten</t>
   </si>
   <si>
@@ -286,9 +283,6 @@
     <t>groucho06</t>
   </si>
   <si>
-    <t>&lt;1</t>
-  </si>
-  <si>
     <t>groucho02</t>
   </si>
   <si>
@@ -337,44 +331,104 @@
     <t>SMHI-RCA4_MPI-M-MPI-ESM-LR</t>
   </si>
   <si>
-    <t>GCM1</t>
-  </si>
-  <si>
-    <t>GCM2</t>
-  </si>
-  <si>
-    <t>GCM3</t>
-  </si>
-  <si>
-    <t>GCM4</t>
-  </si>
-  <si>
     <t>GCM5</t>
   </si>
   <si>
-    <t>EX</t>
-  </si>
-  <si>
-    <t>No hi ha R</t>
-  </si>
-  <si>
-    <t>nrun/set1</t>
-  </si>
-  <si>
-    <t>nrun/set2</t>
-  </si>
-  <si>
-    <t>nrun/set3</t>
-  </si>
-  <si>
-    <t>nrun/set4</t>
+    <t>start</t>
+  </si>
+  <si>
+    <t>29oct-am</t>
+  </si>
+  <si>
+    <t>1nov-pm</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>02nov-am</t>
+  </si>
+  <si>
+    <t>01nov-pm</t>
+  </si>
+  <si>
+    <t>02nov-pm</t>
+  </si>
+  <si>
+    <t>25% en 5 dies</t>
+  </si>
+  <si>
+    <t>06nov-pm</t>
+  </si>
+  <si>
+    <t>08nov-pm</t>
+  </si>
+  <si>
+    <t>08nov-am</t>
+  </si>
+  <si>
+    <t>50% en 11 dies</t>
+  </si>
+  <si>
+    <t>09nov-am</t>
+  </si>
+  <si>
+    <t>10nov-am</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>12nov-am</t>
+  </si>
+  <si>
+    <t>13nov-am</t>
+  </si>
+  <si>
+    <t>75% en 15 dies</t>
+  </si>
+  <si>
+    <t>14nov-pm</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>27nov-am</t>
+  </si>
+  <si>
+    <t>90% en 20 dies</t>
+  </si>
+  <si>
+    <t>20!</t>
+  </si>
+  <si>
+    <t>19nov-am</t>
+  </si>
+  <si>
+    <t>21nov-pm</t>
+  </si>
+  <si>
+    <t>21nov-am</t>
+  </si>
+  <si>
+    <t>100% en 24 dies</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,8 +500,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -475,24 +536,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,7 +571,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -546,29 +589,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -576,9 +610,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -916,7 +947,7 @@
     <col min="7" max="7" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="2" customWidth="1"/>
     <col min="9" max="9" width="26.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
@@ -984,7 +1015,7 @@
         <v>38</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1885,7 +1916,7 @@
         <v>38</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -2786,7 +2817,7 @@
         <v>38</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -3687,7 +3718,7 @@
         <v>38</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -4505,7 +4536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC90E6F-89AC-4A3D-828F-2B7D50492705}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -5381,68 +5412,85 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148D1D3F-7155-4761-A0F7-51B4CD705A93}">
-  <dimension ref="A1:AF30"/>
+  <dimension ref="A1:AG30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="W10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4:X27"/>
+      <selection pane="bottomRight" activeCell="AA32" sqref="AA32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.5546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="20.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="22" width="6.6640625" style="8" customWidth="1"/>
+    <col min="3" max="11" width="4.88671875" style="8" hidden="1" customWidth="1"/>
+    <col min="12" max="22" width="5.88671875" style="8" hidden="1" customWidth="1"/>
     <col min="23" max="24" width="9.6640625" style="8" customWidth="1"/>
     <col min="25" max="25" width="4.109375" style="8" customWidth="1"/>
     <col min="26" max="26" width="4.88671875" style="8" customWidth="1"/>
-    <col min="27" max="27" width="15.6640625" style="8" customWidth="1"/>
-    <col min="28" max="31" width="9.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="11.5546875" style="8"/>
+    <col min="27" max="27" width="18.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="11.5546875" style="8"/>
+    <col min="30" max="33" width="3.44140625" style="21" customWidth="1"/>
+    <col min="34" max="16384" width="11.5546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="30">
+    <row r="1" spans="1:33" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="25">
         <f ca="1">TODAY()</f>
-        <v>44497</v>
-      </c>
-      <c r="B1" s="30"/>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="C2" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="29"/>
-    </row>
-    <row r="3" spans="1:31" s="10" customFormat="1" x14ac:dyDescent="0.3">
+        <v>44521</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="AA1" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB1" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD1" s="21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="C2" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="24"/>
+      <c r="AA2" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
@@ -5458,7 +5506,7 @@
       <c r="E3" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="13" t="s">
         <v>53</v>
       </c>
       <c r="G3" s="12" t="s">
@@ -5470,7 +5518,7 @@
       <c r="I3" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="13" t="s">
         <v>57</v>
       </c>
       <c r="K3" s="12" t="s">
@@ -5482,7 +5530,7 @@
       <c r="M3" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="N3" s="13" t="s">
         <v>61</v>
       </c>
       <c r="O3" s="12" t="s">
@@ -5494,7 +5542,7 @@
       <c r="Q3" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="R3" s="17" t="s">
+      <c r="R3" s="13" t="s">
         <v>65</v>
       </c>
       <c r="S3" s="12" t="s">
@@ -5506,101 +5554,67 @@
       <c r="U3" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="V3" s="17" t="s">
+      <c r="V3" s="13" t="s">
         <v>69</v>
       </c>
       <c r="W3" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="X3" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Z3" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AA3" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AB3" s="10" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="AC3" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD3" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE3" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="AD3" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE3" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF3" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG3" s="22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="M4" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="N4" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="O4" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="P4" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q4" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="R4" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="S4" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="T4" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="U4" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="V4" s="18" t="s">
-        <v>103</v>
-      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="17"/>
       <c r="W4" s="8">
         <v>20</v>
       </c>
@@ -5608,11 +5622,14 @@
         <f>20-W4</f>
         <v>0</v>
       </c>
-      <c r="AB4" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AB4" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC4" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f>+A4+1</f>
         <v>2</v>
@@ -5620,66 +5637,26 @@
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="K5" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="L5" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="O5" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="P5" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q5" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="R5" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="S5" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="T5" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="U5" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="V5" s="19" t="s">
-        <v>103</v>
-      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="17"/>
       <c r="W5" s="8">
         <v>20</v>
       </c>
@@ -5687,11 +5664,14 @@
         <f t="shared" ref="X5:X27" si="0">20-W5</f>
         <v>0</v>
       </c>
-      <c r="AB5" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AB5" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC5" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <f>+A5+1</f>
         <v>3</v>
@@ -5699,66 +5679,26 @@
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="N6" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="P6" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q6" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="R6" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="S6" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="T6" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="U6" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="V6" s="18" t="s">
-        <v>103</v>
-      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="17"/>
       <c r="W6" s="8">
         <v>20</v>
       </c>
@@ -5766,11 +5706,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB6" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="Y6" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB6" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC6" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD6" s="21">
+        <v>18</v>
+      </c>
+      <c r="AE6" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <f>+A6+1</f>
         <v>4</v>
@@ -5778,66 +5730,26 @@
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="J7" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="N7" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="O7" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="P7" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q7" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="R7" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="S7" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="T7" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="U7" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="V7" s="19" t="s">
-        <v>70</v>
-      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="17"/>
       <c r="W7" s="8">
         <v>20</v>
       </c>
@@ -5845,14 +5757,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB7" s="8">
-        <v>9</v>
-      </c>
-      <c r="AC7" s="8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AB7" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC7" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <f t="shared" ref="A8:A27" si="1">+A7+1</f>
         <v>5</v>
@@ -5860,66 +5772,26 @@
       <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="M8" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="N8" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="O8" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="P8" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q8" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="R8" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="S8" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="T8" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="U8" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="V8" s="18" t="s">
-        <v>70</v>
-      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="17"/>
       <c r="W8" s="8">
         <v>20</v>
       </c>
@@ -5927,14 +5799,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB8" s="8">
-        <v>10</v>
-      </c>
-      <c r="AC8" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AB8" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC8" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -5942,66 +5814,26 @@
       <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="L9" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="M9" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="N9" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="O9" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="P9" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q9" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="R9" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="S9" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="T9" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="U9" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="V9" s="19" t="s">
-        <v>103</v>
-      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="17"/>
       <c r="W9" s="8">
         <v>20</v>
       </c>
@@ -6009,14 +5841,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB9" s="8">
-        <v>14</v>
-      </c>
-      <c r="AC9" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AB9" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC9" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -6024,66 +5856,26 @@
       <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="K10" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="N10" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="O10" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="P10" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q10" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="R10" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="S10" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="T10" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="U10" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="V10" s="18" t="s">
-        <v>70</v>
-      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="17"/>
       <c r="W10" s="8">
         <v>20</v>
       </c>
@@ -6091,17 +5883,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB10" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC10" s="8">
-        <v>7</v>
-      </c>
-      <c r="AD10" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AB10" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC10" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -6109,66 +5898,26 @@
       <c r="B11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="L11" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="M11" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="N11" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="O11" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="P11" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q11" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="R11" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="S11" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="T11" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="U11" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="V11" s="19" t="s">
-        <v>70</v>
-      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="17"/>
       <c r="W11" s="8">
         <v>20</v>
       </c>
@@ -6176,17 +5925,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB11" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC11" s="8">
-        <v>7</v>
-      </c>
-      <c r="AD11" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="Y11" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB11" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC11" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD11" s="21">
+        <v>9</v>
+      </c>
+      <c r="AE11" s="21">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -6194,66 +5949,26 @@
       <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="K12" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="L12" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="M12" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="N12" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="O12" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="P12" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q12" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="R12" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="S12" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="T12" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="U12" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="V12" s="18" t="s">
-        <v>103</v>
-      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="17"/>
       <c r="W12" s="8">
         <v>20</v>
       </c>
@@ -6261,11 +5976,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB12" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="Y12" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB12" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC12" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD12" s="21">
+        <v>10</v>
+      </c>
+      <c r="AE12" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -6273,66 +6000,26 @@
       <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="J13" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="K13" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="L13" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="M13" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="N13" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="O13" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="P13" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q13" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="R13" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="S13" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="T13" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="U13" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="V13" s="19" t="s">
-        <v>103</v>
-      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="17"/>
       <c r="W13" s="8">
         <v>20</v>
       </c>
@@ -6340,11 +6027,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB13" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AB13" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC13" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -6352,66 +6042,26 @@
       <c r="B14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="K14" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="M14" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="N14" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="O14" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="P14" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q14" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="R14" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="S14" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="T14" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="U14" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="V14" s="18" t="s">
-        <v>103</v>
-      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="17"/>
       <c r="W14" s="8">
         <v>20</v>
       </c>
@@ -6419,11 +6069,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB14" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AB14" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC14" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -6431,66 +6084,26 @@
       <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="J15" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="K15" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="L15" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="M15" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="N15" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="O15" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="P15" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q15" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="R15" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="S15" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="T15" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="U15" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="V15" s="19" t="s">
-        <v>103</v>
-      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="17"/>
       <c r="W15" s="8">
         <v>20</v>
       </c>
@@ -6498,11 +6111,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB15" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AB15" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC15" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -6510,66 +6126,26 @@
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="J16" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="K16" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="L16" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="M16" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="N16" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="O16" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="P16" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q16" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="R16" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="S16" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="T16" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="U16" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="V16" s="23" t="s">
-        <v>103</v>
-      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="19"/>
       <c r="W16" s="8">
         <v>20</v>
       </c>
@@ -6577,14 +6153,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB16" s="8">
-        <v>4</v>
-      </c>
-      <c r="AC16" s="8">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="Y16" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB16" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC16" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD16" s="21">
+        <v>17</v>
+      </c>
+      <c r="AE16" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -6592,66 +6177,26 @@
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="I17" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="K17" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="L17" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="M17" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="N17" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="O17" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="P17" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q17" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="R17" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="S17" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="T17" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="U17" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="V17" s="24" t="s">
-        <v>103</v>
-      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="19"/>
       <c r="W17" s="8">
         <v>20</v>
       </c>
@@ -6659,14 +6204,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB17" s="8">
-        <v>4</v>
-      </c>
-      <c r="AC17" s="8">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB17" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC17" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -6674,66 +6219,26 @@
       <c r="B18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="J18" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="K18" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="L18" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="M18" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="N18" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="O18" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="P18" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q18" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="R18" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="S18" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="T18" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="U18" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="V18" s="23" t="s">
-        <v>103</v>
-      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="19"/>
       <c r="W18" s="8">
         <v>20</v>
       </c>
@@ -6741,14 +6246,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB18" s="8">
-        <v>4</v>
-      </c>
-      <c r="AC18" s="8">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB18" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC18" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -6756,66 +6261,26 @@
       <c r="B19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="H19" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="I19" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="J19" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="K19" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="L19" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="M19" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="N19" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="O19" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="P19" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q19" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="R19" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="S19" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="T19" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="U19" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="V19" s="24" t="s">
-        <v>103</v>
-      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="19"/>
       <c r="W19" s="8">
         <v>20</v>
       </c>
@@ -6823,17 +6288,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB19" s="8">
-        <v>4</v>
-      </c>
-      <c r="AC19" s="8">
-        <v>15</v>
-      </c>
-      <c r="AD19" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB19" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC19" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -6841,66 +6303,26 @@
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="J20" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="K20" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="L20" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="M20" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="N20" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="O20" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="P20" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q20" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="R20" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="S20" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="T20" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="U20" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="V20" s="23" t="s">
-        <v>103</v>
-      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="19"/>
       <c r="W20" s="8">
         <v>20</v>
       </c>
@@ -6908,14 +6330,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB20" s="8">
-        <v>4</v>
-      </c>
-      <c r="AC20" s="8">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB20" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC20" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -6923,66 +6345,26 @@
       <c r="B21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="I21" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="J21" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="K21" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="L21" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="M21" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="N21" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="O21" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="P21" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q21" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="R21" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="S21" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="T21" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="U21" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="V21" s="24" t="s">
-        <v>103</v>
-      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="19"/>
       <c r="W21" s="8">
         <v>20</v>
       </c>
@@ -6990,14 +6372,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB21" s="8">
-        <v>4</v>
-      </c>
-      <c r="AC21" s="8">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="Y21" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB21" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC21" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD21" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE21" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -7005,81 +6396,53 @@
       <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="H22" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="I22" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="J22" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="K22" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="L22" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="M22" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="N22" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="O22" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="P22" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q22" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="R22" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="S22" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="T22" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="U22" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="V22" s="23" t="s">
-        <v>103</v>
-      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="19"/>
       <c r="W22" s="8">
         <v>20</v>
       </c>
       <c r="X22" s="8">
-        <f t="shared" si="0"/>
+        <f>20-W22</f>
         <v>0</v>
       </c>
-      <c r="AB22" s="8">
-        <v>4</v>
-      </c>
-      <c r="AC22" s="8">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="Y22" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB22" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD22" s="21">
+        <v>3</v>
+      </c>
+      <c r="AE22" s="21">
+        <v>2</v>
+      </c>
+      <c r="AF22" s="21">
+        <v>4</v>
+      </c>
+      <c r="AG22" s="21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -7087,66 +6450,26 @@
       <c r="B23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="H23" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="I23" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="J23" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="K23" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="L23" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="M23" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="N23" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="O23" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="P23" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q23" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="R23" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="S23" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="T23" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="U23" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="V23" s="24" t="s">
-        <v>103</v>
-      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="19"/>
       <c r="W23" s="8">
         <v>20</v>
       </c>
@@ -7154,24 +6477,26 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA23" s="6"/>
-      <c r="AB23" s="6">
-        <v>4</v>
-      </c>
-      <c r="AC23" s="6">
-        <v>5</v>
-      </c>
-      <c r="AD23" s="8">
+      <c r="Y23" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB23" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD23" s="21">
+        <v>3</v>
+      </c>
+      <c r="AE23" s="21">
         <v>2</v>
       </c>
-      <c r="AE23" s="8">
-        <v>8</v>
-      </c>
-      <c r="AF23" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AF23" s="21">
+        <v>4</v>
+      </c>
+      <c r="AG23" s="21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -7179,66 +6504,26 @@
       <c r="B24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="H24" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="I24" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="J24" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="K24" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="L24" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="M24" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="N24" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="O24" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="P24" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q24" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="R24" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="S24" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="T24" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="U24" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="V24" s="18" t="s">
-        <v>103</v>
-      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="17"/>
       <c r="W24" s="8">
         <v>20</v>
       </c>
@@ -7246,21 +6531,23 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA24" s="6"/>
-      <c r="AB24" s="8">
-        <v>4</v>
-      </c>
-      <c r="AC24" s="8">
-        <v>4</v>
-      </c>
-      <c r="AD24" s="8">
-        <v>8</v>
-      </c>
-      <c r="AE24" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="Y24" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB24" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC24" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD24" s="21">
+        <v>10</v>
+      </c>
+      <c r="AE24" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -7268,66 +6555,26 @@
       <c r="B25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="H25" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="I25" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="J25" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="K25" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="L25" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="M25" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="N25" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="O25" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="P25" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q25" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="R25" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="S25" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="T25" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="U25" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="V25" s="24" t="s">
-        <v>103</v>
-      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="19"/>
       <c r="W25" s="8">
         <v>20</v>
       </c>
@@ -7335,21 +6582,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA25" s="6"/>
-      <c r="AB25" s="8">
-        <v>4</v>
-      </c>
-      <c r="AC25" s="8">
-        <v>4</v>
-      </c>
-      <c r="AD25" s="8">
-        <v>8</v>
-      </c>
-      <c r="AE25" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB25" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC25" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -7357,66 +6597,26 @@
       <c r="B26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="G26" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="H26" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="I26" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="J26" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="K26" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="L26" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="M26" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="N26" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="O26" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="P26" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q26" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="R26" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="S26" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="T26" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="U26" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="V26" s="18" t="s">
-        <v>103</v>
-      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="17"/>
       <c r="W26" s="8">
         <v>20</v>
       </c>
@@ -7424,17 +6624,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB26" s="8">
-        <v>4</v>
-      </c>
-      <c r="AC26" s="8">
-        <v>8</v>
-      </c>
-      <c r="AD26" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB26" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC26" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -7442,66 +6639,26 @@
       <c r="B27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="H27" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="I27" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="J27" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="K27" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="L27" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="M27" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="N27" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="O27" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="P27" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q27" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="R27" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="S27" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="T27" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="U27" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="V27" s="24" t="s">
-        <v>103</v>
-      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="19"/>
       <c r="W27" s="8">
         <v>20</v>
       </c>
@@ -7509,21 +6666,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB27" s="8">
-        <v>4</v>
-      </c>
-      <c r="AC27" s="8">
-        <v>15</v>
-      </c>
-      <c r="AD27" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AB27" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC27" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
       <c r="Z28" s="10"/>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
       <c r="W29" s="10">
         <f>SUM(W4:W27)</f>
         <v>480</v>
@@ -7535,12 +6689,12 @@
       <c r="Y29" s="10"/>
       <c r="Z29" s="10"/>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="W30" s="20">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="W30" s="14">
         <f>+W29/(W29+X29)</f>
         <v>1</v>
       </c>
-      <c r="X30" s="20">
+      <c r="X30" s="14">
         <f>+X29/(X29+W29)</f>
         <v>0</v>
       </c>
@@ -7563,28 +6717,28 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A39D7BBB-41A3-4A8B-8E98-1EE397F74370}">
-  <dimension ref="B2:E16"/>
+  <dimension ref="B2:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D15" sqref="B15:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" s="7">
         <v>16</v>
@@ -7595,15 +6749,15 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5">
         <v>16</v>
@@ -7612,12 +6766,12 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6">
         <v>16</v>
@@ -7626,26 +6780,26 @@
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7">
         <v>16</v>
       </c>
-      <c r="D7" t="s">
-        <v>81</v>
+      <c r="D7">
+        <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8" s="7">
         <v>16</v>
@@ -7656,7 +6810,7 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C9" s="7">
         <v>16</v>
@@ -7667,7 +6821,7 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C10" s="7">
         <v>16</v>
@@ -7677,27 +6831,30 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="7">
+      <c r="B11" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="20">
         <v>16</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="20">
         <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C13" s="7">
         <v>16</v>
@@ -7708,7 +6865,7 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C14" s="7">
         <v>16</v>
@@ -7718,28 +6875,31 @@
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-      <c r="D15">
+      <c r="B15" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="7">
+        <v>4</v>
+      </c>
+      <c r="D15" s="7">
         <v>64</v>
-      </c>
-      <c r="E15" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16" s="7">
         <v>8</v>
       </c>
       <c r="D16" s="7">
         <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J33">
+        <f>6*8</f>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -7763,10 +6923,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="32"/>
+      <c r="E1" s="26"/>
       <c r="F1" s="5" t="s">
         <v>49</v>
       </c>

--- a/scenarios.xlsx
+++ b/scenarios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ctfccat-my.sharepoint.com/personal/nuria_aquilue_ctfc_cat/Documents/MEDMOD/SpatialModelsR/MEDFIRE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="452" documentId="13_ncr:1_{B39E0F97-250B-4753-8D7F-290F33FE68DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3FC7755-D250-4C2B-BA0B-1F907D2CEC82}"/>
+  <xr:revisionPtr revIDLastSave="467" documentId="13_ncr:1_{B39E0F97-250B-4753-8D7F-290F33FE68DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78CAFA7D-877F-4D6F-B9BA-34D5A2E56AF9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{9687B63A-F89B-47E3-AB36-04820FAA1C94}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="132">
   <si>
     <t>scn.id</t>
   </si>
@@ -422,6 +422,21 @@
   </si>
   <si>
     <t>100% en 24 dies</t>
+  </si>
+  <si>
+    <t>R version</t>
+  </si>
+  <si>
+    <t>3.5.3</t>
+  </si>
+  <si>
+    <t>4.0.4</t>
+  </si>
+  <si>
+    <t>R versions installed: 3.5, 4.0 and 4.1</t>
+  </si>
+  <si>
+    <t>4.1.0</t>
   </si>
 </sst>
 </file>
@@ -571,7 +586,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -615,6 +630,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4537,7 +4565,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5415,10 +5443,10 @@
   <dimension ref="A1:AG30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="W10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="W7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AA32" sqref="AA32"/>
+      <selection pane="bottomRight" activeCell="AF22" sqref="AF22:AG22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5430,7 +5458,7 @@
     <col min="23" max="24" width="9.6640625" style="8" customWidth="1"/>
     <col min="25" max="25" width="4.109375" style="8" customWidth="1"/>
     <col min="26" max="26" width="4.88671875" style="8" customWidth="1"/>
-    <col min="27" max="27" width="18.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.6640625" style="8" bestFit="1" customWidth="1"/>
     <col min="28" max="29" width="11.5546875" style="8"/>
     <col min="30" max="33" width="3.44140625" style="21" customWidth="1"/>
     <col min="34" max="16384" width="11.5546875" style="8"/>
@@ -5439,7 +5467,7 @@
     <row r="1" spans="1:33" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="25">
         <f ca="1">TODAY()</f>
-        <v>44521</v>
+        <v>44599</v>
       </c>
       <c r="B1" s="25"/>
       <c r="AA1" s="8" t="s">
@@ -6388,111 +6416,115 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+    <row r="22" spans="1:33" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="27">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="18"/>
-      <c r="T22" s="18"/>
-      <c r="U22" s="18"/>
-      <c r="V22" s="19"/>
-      <c r="W22" s="8">
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="30"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="32">
         <v>20</v>
       </c>
-      <c r="X22" s="8">
+      <c r="X22" s="32">
         <f>20-W22</f>
         <v>0</v>
       </c>
-      <c r="Y22" s="8" t="s">
+      <c r="Y22" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="AB22" s="8" t="s">
+      <c r="AB22" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="AD22" s="21">
-        <v>3</v>
-      </c>
-      <c r="AE22" s="21">
+      <c r="AC22" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD22" s="33">
+        <v>3</v>
+      </c>
+      <c r="AE22" s="33">
         <v>2</v>
       </c>
-      <c r="AF22" s="21">
-        <v>4</v>
-      </c>
-      <c r="AG22" s="21">
+      <c r="AF22" s="33">
+        <v>4</v>
+      </c>
+      <c r="AG22" s="33">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+    <row r="23" spans="1:33" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="27">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="19"/>
-      <c r="W23" s="8">
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="30"/>
+      <c r="V23" s="31"/>
+      <c r="W23" s="32">
         <v>20</v>
       </c>
-      <c r="X23" s="8">
+      <c r="X23" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y23" s="8" t="s">
+      <c r="Y23" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="AB23" s="8" t="s">
+      <c r="AB23" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="AD23" s="21">
-        <v>3</v>
-      </c>
-      <c r="AE23" s="21">
+      <c r="AC23" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD23" s="33">
+        <v>3</v>
+      </c>
+      <c r="AE23" s="33">
         <v>2</v>
       </c>
-      <c r="AF23" s="21">
-        <v>4</v>
-      </c>
-      <c r="AG23" s="21">
+      <c r="AF23" s="33">
+        <v>4</v>
+      </c>
+      <c r="AG23" s="33">
         <v>9</v>
       </c>
     </row>
@@ -6717,15 +6749,23 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A39D7BBB-41A3-4A8B-8E98-1EE397F74370}">
-  <dimension ref="B2:J33"/>
+  <dimension ref="B1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="B15:D15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E1" s="22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>73</v>
       </c>
@@ -6735,8 +6775,11 @@
       <c r="D2" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E2" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>74</v>
       </c>
@@ -6746,16 +6789,17 @@
       <c r="D3" s="7">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>80</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>76</v>
       </c>
@@ -6765,11 +6809,11 @@
       <c r="D5">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>77</v>
       </c>
@@ -6779,11 +6823,11 @@
       <c r="D6">
         <v>8</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>78</v>
       </c>
@@ -6793,11 +6837,11 @@
       <c r="D7">
         <v>4</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>79</v>
       </c>
@@ -6807,8 +6851,9 @@
       <c r="D8" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
         <v>88</v>
       </c>
@@ -6818,8 +6863,9 @@
       <c r="D9" s="7">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
         <v>89</v>
       </c>
@@ -6829,8 +6875,9 @@
       <c r="D10" s="7">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="20" t="s">
         <v>81</v>
       </c>
@@ -6840,19 +6887,20 @@
       <c r="D11" s="20">
         <v>18</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="20"/>
+      <c r="F11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>85</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
         <v>86</v>
       </c>
@@ -6862,8 +6910,11 @@
       <c r="D13" s="7">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E13" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
         <v>87</v>
       </c>
@@ -6873,8 +6924,11 @@
       <c r="D14" s="7">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E14" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
         <v>82</v>
       </c>
@@ -6884,8 +6938,11 @@
       <c r="D15" s="7">
         <v>64</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E15" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
         <v>72</v>
       </c>
@@ -6895,9 +6952,12 @@
       <c r="D16" s="7">
         <v>64</v>
       </c>
-    </row>
-    <row r="33" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J33">
+      <c r="E16" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K33">
         <f>6*8</f>
         <v>48</v>
       </c>

--- a/scenarios.xlsx
+++ b/scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ctfccat-my.sharepoint.com/personal/nuria_aquilue_ctfc_cat/Documents/MEDMOD/SpatialModelsR/MEDFIRE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="467" documentId="13_ncr:1_{B39E0F97-250B-4753-8D7F-290F33FE68DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78CAFA7D-877F-4D6F-B9BA-34D5A2E56AF9}"/>
+  <xr:revisionPtr revIDLastSave="475" documentId="13_ncr:1_{B39E0F97-250B-4753-8D7F-290F33FE68DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1358DCCF-C0BE-444C-A880-9D0451FA8CE6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{9687B63A-F89B-47E3-AB36-04820FAA1C94}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{9687B63A-F89B-47E3-AB36-04820FAA1C94}"/>
   </bookViews>
   <sheets>
     <sheet name="GCM1" sheetId="12" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="132">
   <si>
     <t>scn.id</t>
   </si>
@@ -618,18 +618,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -643,6 +631,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5440,13 +5440,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148D1D3F-7155-4761-A0F7-51B4CD705A93}">
-  <dimension ref="A1:AG30"/>
+  <dimension ref="A1:AH30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="W7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="W19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AF22" sqref="AF22:AG22"/>
+      <selection pane="bottomRight" activeCell="AH24" sqref="AH24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5465,11 +5465,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="25">
+      <c r="A1" s="32">
         <f ca="1">TODAY()</f>
-        <v>44599</v>
-      </c>
-      <c r="B1" s="25"/>
+        <v>44603</v>
+      </c>
+      <c r="B1" s="32"/>
       <c r="AA1" s="8" t="s">
         <v>104</v>
       </c>
@@ -5481,36 +5481,36 @@
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="23" t="s">
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="23" t="s">
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="23" t="s">
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="23" t="s">
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="24"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="31"/>
       <c r="AA2" s="8" t="s">
         <v>108</v>
       </c>
@@ -6197,7 +6197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -6239,7 +6239,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -6281,7 +6281,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -6323,7 +6323,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -6365,7 +6365,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -6416,119 +6416,125 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:33" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="27">
+    <row r="22" spans="1:34" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="23">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="31"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="30"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="31"/>
-      <c r="W22" s="32">
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="28">
         <v>20</v>
       </c>
-      <c r="X22" s="32">
+      <c r="X22" s="28">
         <f>20-W22</f>
         <v>0</v>
       </c>
-      <c r="Y22" s="32" t="s">
+      <c r="Y22" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="AB22" s="32" t="s">
+      <c r="AB22" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="AC22" s="32" t="s">
+      <c r="AC22" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="AD22" s="33">
-        <v>3</v>
-      </c>
-      <c r="AE22" s="33">
-        <v>2</v>
-      </c>
-      <c r="AF22" s="33">
-        <v>4</v>
-      </c>
-      <c r="AG22" s="33">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:33" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="27">
+      <c r="AD22" s="29">
+        <v>5</v>
+      </c>
+      <c r="AE22" s="29">
+        <v>7</v>
+      </c>
+      <c r="AF22" s="29">
+        <v>4</v>
+      </c>
+      <c r="AG22" s="29">
+        <v>4</v>
+      </c>
+      <c r="AH22" s="28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="23">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="30"/>
-      <c r="V23" s="31"/>
-      <c r="W23" s="32">
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="26"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="28">
         <v>20</v>
       </c>
-      <c r="X23" s="32">
+      <c r="X23" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y23" s="32" t="s">
+      <c r="Y23" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="AB23" s="32" t="s">
+      <c r="AB23" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="AC23" s="32" t="s">
+      <c r="AC23" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="AD23" s="33">
-        <v>3</v>
-      </c>
-      <c r="AE23" s="33">
-        <v>2</v>
-      </c>
-      <c r="AF23" s="33">
-        <v>4</v>
-      </c>
-      <c r="AG23" s="33">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AD23" s="29">
+        <v>5</v>
+      </c>
+      <c r="AE23" s="29">
+        <v>8</v>
+      </c>
+      <c r="AF23" s="29">
+        <v>4</v>
+      </c>
+      <c r="AG23" s="29">
+        <v>3</v>
+      </c>
+      <c r="AH23" s="28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -6579,7 +6585,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -6621,7 +6627,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -6663,7 +6669,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -6705,11 +6711,11 @@
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
       <c r="Z28" s="10"/>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
       <c r="W29" s="10">
         <f>SUM(W4:W27)</f>
         <v>480</v>
@@ -6721,7 +6727,7 @@
       <c r="Y29" s="10"/>
       <c r="Z29" s="10"/>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
       <c r="W30" s="14">
         <f>+W29/(W29+X29)</f>
         <v>1</v>
@@ -6983,10 +6989,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="26"/>
+      <c r="E1" s="33"/>
       <c r="F1" s="5" t="s">
         <v>49</v>
       </c>

--- a/scenarios.xlsx
+++ b/scenarios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ctfccat-my.sharepoint.com/personal/nuria_aquilue_ctfc_cat/Documents/MEDMOD/SpatialModelsR/MEDFIRE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="475" documentId="13_ncr:1_{B39E0F97-250B-4753-8D7F-290F33FE68DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1358DCCF-C0BE-444C-A880-9D0451FA8CE6}"/>
+  <xr:revisionPtr revIDLastSave="178" documentId="13_ncr:1_{E843358B-5C6F-49CF-9974-9C5B55D21C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30827C1C-81EC-436F-94B3-A47C645C2FDE}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{9687B63A-F89B-47E3-AB36-04820FAA1C94}"/>
+    <workbookView xWindow="29760" yWindow="960" windowWidth="16200" windowHeight="9300" activeTab="5" xr2:uid="{9687B63A-F89B-47E3-AB36-04820FAA1C94}"/>
   </bookViews>
   <sheets>
     <sheet name="GCM1" sheetId="12" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="126">
   <si>
     <t>scn.id</t>
   </si>
@@ -337,48 +337,9 @@
     <t>start</t>
   </si>
   <si>
-    <t>29oct-am</t>
-  </si>
-  <si>
-    <t>1nov-pm</t>
-  </si>
-  <si>
     <t>end</t>
   </si>
   <si>
-    <t>02nov-am</t>
-  </si>
-  <si>
-    <t>01nov-pm</t>
-  </si>
-  <si>
-    <t>02nov-pm</t>
-  </si>
-  <si>
-    <t>25% en 5 dies</t>
-  </si>
-  <si>
-    <t>06nov-pm</t>
-  </si>
-  <si>
-    <t>08nov-pm</t>
-  </si>
-  <si>
-    <t>08nov-am</t>
-  </si>
-  <si>
-    <t>50% en 11 dies</t>
-  </si>
-  <si>
-    <t>09nov-am</t>
-  </si>
-  <si>
-    <t>10nov-am</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -388,42 +349,9 @@
     <t>C</t>
   </si>
   <si>
-    <t>12nov-am</t>
-  </si>
-  <si>
-    <t>13nov-am</t>
-  </si>
-  <si>
-    <t>75% en 15 dies</t>
-  </si>
-  <si>
-    <t>14nov-pm</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
-    <t>27nov-am</t>
-  </si>
-  <si>
-    <t>90% en 20 dies</t>
-  </si>
-  <si>
-    <t>20!</t>
-  </si>
-  <si>
-    <t>19nov-am</t>
-  </si>
-  <si>
-    <t>21nov-pm</t>
-  </si>
-  <si>
-    <t>21nov-am</t>
-  </si>
-  <si>
-    <t>100% en 24 dies</t>
-  </si>
-  <si>
     <t>R version</t>
   </si>
   <si>
@@ -437,6 +365,60 @@
   </si>
   <si>
     <t>4.1.0</t>
+  </si>
+  <si>
+    <t>15feb-am</t>
+  </si>
+  <si>
+    <t>16feb-am</t>
+  </si>
+  <si>
+    <t>17feb-pm</t>
+  </si>
+  <si>
+    <t>20feb-pm</t>
+  </si>
+  <si>
+    <t>21feb-am</t>
+  </si>
+  <si>
+    <t>24feb-am</t>
+  </si>
+  <si>
+    <t>24feb-pm</t>
+  </si>
+  <si>
+    <t>26feb-pm</t>
+  </si>
+  <si>
+    <t>28feb-pm</t>
+  </si>
+  <si>
+    <t>01mar-am</t>
+  </si>
+  <si>
+    <t>02mar-pm</t>
+  </si>
+  <si>
+    <t>03mar-pm</t>
+  </si>
+  <si>
+    <t>06mar-am</t>
+  </si>
+  <si>
+    <t>08mar-pm</t>
+  </si>
+  <si>
+    <t>10mar-am</t>
+  </si>
+  <si>
+    <t>13mar-am</t>
+  </si>
+  <si>
+    <t>15mar-am</t>
+  </si>
+  <si>
+    <t>17mar-pm</t>
   </si>
 </sst>
 </file>
@@ -586,7 +568,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -618,19 +600,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5440,13 +5410,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148D1D3F-7155-4761-A0F7-51B4CD705A93}">
-  <dimension ref="A1:AH30"/>
+  <dimension ref="A1:AG30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="W19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="W4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AH24" sqref="AH24"/>
+      <selection pane="bottomRight" activeCell="AC25" sqref="AC25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5465,58 +5435,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="32">
+      <c r="A1" s="26">
         <f ca="1">TODAY()</f>
-        <v>44603</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="AA1" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB1" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD1" s="21" t="s">
-        <v>126</v>
-      </c>
+        <v>44637</v>
+      </c>
+      <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="30" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="30" t="s">
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="30" t="s">
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="30" t="s">
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="31"/>
-      <c r="AA2" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB2" s="8" t="s">
-        <v>121</v>
-      </c>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="25"/>
     </row>
     <row r="3" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
@@ -5601,19 +5556,19 @@
         <v>97</v>
       </c>
       <c r="AC3" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD3" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE3" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="AD3" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="AE3" s="22" t="s">
-        <v>113</v>
-      </c>
       <c r="AF3" s="22" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="AG3" s="22" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.3">
@@ -5650,11 +5605,14 @@
         <f>20-W4</f>
         <v>0</v>
       </c>
+      <c r="AA4" s="7" t="s">
+        <v>74</v>
+      </c>
       <c r="AB4" s="8" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="AC4" s="8" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.3">
@@ -5692,11 +5650,14 @@
         <f t="shared" ref="X5:X27" si="0">20-W5</f>
         <v>0</v>
       </c>
+      <c r="AA5" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="AB5" s="8" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="AC5" s="8" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
@@ -5734,20 +5695,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y6" s="8" t="s">
-        <v>111</v>
+      <c r="AA6" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="AB6" s="8" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="AC6" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD6" s="21">
-        <v>18</v>
-      </c>
-      <c r="AE6" s="21">
-        <v>2</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
@@ -5785,11 +5740,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AA7" s="7" t="s">
+        <v>86</v>
+      </c>
       <c r="AB7" s="8" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="AC7" s="8" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
@@ -5827,11 +5785,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AA8" s="7" t="s">
+        <v>87</v>
+      </c>
       <c r="AB8" s="8" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="AC8" s="8" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.3">
@@ -5869,11 +5830,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AA9" s="7" t="s">
+        <v>82</v>
+      </c>
       <c r="AB9" s="8" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="AC9" s="8" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.3">
@@ -5911,11 +5875,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AA10" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="AB10" s="8" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="AC10" s="8" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">
@@ -5953,20 +5920,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y11" s="8" t="s">
-        <v>111</v>
+      <c r="AA11" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="AB11" s="8" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="AC11" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD11" s="21">
-        <v>9</v>
-      </c>
-      <c r="AE11" s="21">
-        <v>11</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
@@ -6004,20 +5965,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y12" s="8" t="s">
-        <v>111</v>
+      <c r="AA12" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="AB12" s="8" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="AC12" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD12" s="21">
-        <v>10</v>
-      </c>
-      <c r="AE12" s="21">
-        <v>10</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
@@ -6055,11 +6010,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AA13" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="AB13" s="8" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="AC13" s="8" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.3">
@@ -6097,11 +6055,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AA14" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="AB14" s="8" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="AC14" s="8" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.3">
@@ -6139,11 +6100,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AA15" s="7" t="s">
+        <v>82</v>
+      </c>
       <c r="AB15" s="8" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="AC15" s="8" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.3">
@@ -6181,23 +6145,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y16" s="8" t="s">
-        <v>111</v>
+      <c r="AA16" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="AB16" s="8" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="AC16" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD16" s="21">
-        <v>17</v>
-      </c>
-      <c r="AE16" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -6232,14 +6190,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AA17" s="7" t="s">
+        <v>86</v>
+      </c>
       <c r="AB17" s="8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="AC17" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -6274,14 +6235,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AA18" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="AB18" s="8" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="AC18" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -6316,14 +6280,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AA19" s="7" t="s">
+        <v>82</v>
+      </c>
       <c r="AB19" s="8" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="AC19" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -6358,14 +6325,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AA20" s="7" t="s">
+        <v>87</v>
+      </c>
       <c r="AB20" s="8" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="AC20" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -6400,141 +6370,113 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y21" s="8" t="s">
-        <v>111</v>
+      <c r="AA21" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="AB21" s="8" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="AC21" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD21" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE21" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="23">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="26"/>
-      <c r="V22" s="27"/>
-      <c r="W22" s="28">
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="8">
         <v>20</v>
       </c>
-      <c r="X22" s="28">
+      <c r="X22" s="6">
         <f>20-W22</f>
         <v>0</v>
       </c>
-      <c r="Y22" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB22" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC22" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD22" s="29">
-        <v>5</v>
-      </c>
-      <c r="AE22" s="29">
-        <v>7</v>
-      </c>
-      <c r="AF22" s="29">
-        <v>4</v>
-      </c>
-      <c r="AG22" s="29">
-        <v>4</v>
-      </c>
-      <c r="AH22" s="28" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="23">
+      <c r="AA22" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB22" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC22" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD22" s="23"/>
+      <c r="AE22" s="23"/>
+      <c r="AF22" s="23"/>
+      <c r="AG22" s="23"/>
+    </row>
+    <row r="23" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="26"/>
-      <c r="V23" s="27"/>
-      <c r="W23" s="28">
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="18"/>
+      <c r="V23" s="19"/>
+      <c r="W23" s="8">
         <v>20</v>
       </c>
-      <c r="X23" s="28">
+      <c r="X23" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y23" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB23" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC23" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD23" s="29">
-        <v>5</v>
-      </c>
-      <c r="AE23" s="29">
-        <v>8</v>
-      </c>
-      <c r="AF23" s="29">
-        <v>4</v>
-      </c>
-      <c r="AG23" s="29">
-        <v>3</v>
-      </c>
-      <c r="AH23" s="28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AA23" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB23" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC23" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD23" s="23"/>
+      <c r="AE23" s="23"/>
+      <c r="AF23" s="23"/>
+      <c r="AG23" s="23"/>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -6569,23 +6511,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y24" s="8" t="s">
-        <v>111</v>
+      <c r="AA24" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="AB24" s="8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AC24" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD24" s="21">
-        <v>10</v>
-      </c>
-      <c r="AE24" s="21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -6620,14 +6556,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AA25" s="7" t="s">
+        <v>82</v>
+      </c>
       <c r="AB25" s="8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AC25" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -6662,14 +6601,17 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB26" s="8" t="s">
-        <v>116</v>
+      <c r="AA26" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB26" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="AC26" s="8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -6704,18 +6646,27 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="AA27" s="7" t="s">
+        <v>82</v>
+      </c>
       <c r="AB27" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC27" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+      <c r="AC27" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD27" s="21">
+        <v>15</v>
+      </c>
+      <c r="AE27" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
       <c r="Z28" s="10"/>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
       <c r="W29" s="10">
         <f>SUM(W4:W27)</f>
         <v>480</v>
@@ -6727,7 +6678,7 @@
       <c r="Y29" s="10"/>
       <c r="Z29" s="10"/>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
       <c r="W30" s="14">
         <f>+W29/(W29+X29)</f>
         <v>1</v>
@@ -6758,7 +6709,7 @@
   <dimension ref="B1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6768,7 +6719,7 @@
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.3">
       <c r="E1" s="22" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
@@ -6782,7 +6733,7 @@
         <v>83</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
@@ -6917,7 +6868,7 @@
         <v>16</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
@@ -6931,7 +6882,7 @@
         <v>16</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
@@ -6945,7 +6896,7 @@
         <v>64</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
@@ -6959,7 +6910,7 @@
         <v>64</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="11:11" x14ac:dyDescent="0.3">
@@ -6989,10 +6940,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="33"/>
+      <c r="E1" s="27"/>
       <c r="F1" s="5" t="s">
         <v>49</v>
       </c>
